--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" firstSheet="1" activeTab="6" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" activeTab="2" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
-    <sheet name="AllDosis_Compare" sheetId="13" r:id="rId2"/>
+    <sheet name="Which_Feature_to_be_watched" sheetId="13" r:id="rId2"/>
     <sheet name="D0_Compare" sheetId="8" r:id="rId3"/>
     <sheet name="D1_Compare" sheetId="9" r:id="rId4"/>
     <sheet name="D2_Compare" sheetId="10" r:id="rId5"/>
@@ -29,8 +29,92 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matthias Weinhold</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{0B5AE2D9-A300-4DDA-9F0F-F2C55F78C5BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+% 1. Short Run Emphasis (SRE), Ref.[1]
+% 2. Long Run Emphasis (LRE), Ref.[1]
+% 3. Gray-Level Nonuniformity (GLN), adapted from Ref.[1]
+% 4. Run-Length Nonuniformity (RLN), adapted from Ref.[1]
+% 5. Run Percentage (RP), adapted from Ref.[1]
+% 6. Low Gray-Level Run Emphasis (LGRE), Ref.[2]
+% 7. High Gray-Level Run Emphasis (HGRE), Ref.[2]
+% 8. Short Run Low Gray-Level Emphasis (SRLGE), Ref.[3]
+% 9. Short Run High Gray-Level Emphasis (SRHGE), Ref.[3]
+% 10. Long Run Low Gray-Level Emphasis (LRLGE), Ref.[3]
+% 11. Long Run High Gray-Level Emphasis (LRHGE), Ref.[3]
+% 12. Gray-Level Variance (GLV), adapted from Ref.[4]
+% 13. Run-Length Variance (RLV), adapted from Ref.[4]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{352B053F-AA51-479B-B3E6-1BCA16AEF686}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+% 1. Small Zone Emphasis (SZE), Ref.[1,4]
+% 2. Large Zone Emphasis (LZE), Ref.[1,4]
+% 3. Gray-Level Nonuniformity (GLN), adapted from Ref.[1,4]
+% 4. Zone-Size Nonuniformity (ZSN), adapted from Ref.[1,4]
+% 5. Zone Percentage (ZP), adapted from Ref.[1,4]
+% 6. Low Gray-Level Zone Emphasis (LGZE), Ref.[2,4]
+% 7. High Gray-Level Zone Emphasis (HGZE), Ref.[2,4]
+% 8. Small Zone Low Gray-Level Emphasis (SZLGE), Ref.[3,4]
+% 9. Small Zone High Gray-Level Emphasis (SZHGE), Ref.[3,4]
+% 10. Large Zone Low Gray-Level Emphasis (LZLGE), Ref.[3,4]
+% 11. Large Zone High Gray-Level Emphasis (LZHGE), Ref.[3,4]
+% 12. Gray-Level Variance (GLV), adapted from Ref.[4]
+% 13. Zone-Size Variance (ZSV), adapted from Ref.[4]
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="58">
   <si>
     <t>Jana Struct TextureFeature Zuordnung</t>
   </si>
@@ -202,12 +286,15 @@
   <si>
     <t>Abweichung in %</t>
   </si>
+  <si>
+    <t>GLCM/GTDSM 'Energy'/'SecondAngularMoment'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +324,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +393,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -524,39 +638,27 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
@@ -636,9 +738,153 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -661,6 +907,164 @@
           <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -778,13 +1182,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -803,6 +1200,13 @@
           <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -839,288 +1243,13 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1202,13 +1331,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1229,37 +1351,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1295,14 +1390,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1532,13 +1619,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1548,6 +1628,55 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1564,33 +1693,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71C06C0B-82D4-4083-8938-D8F8E45C8754}" name="Tabelle2" displayName="Tabelle2" ref="A1:K43" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71C06C0B-82D4-4083-8938-D8F8E45C8754}" name="Tabelle2" displayName="Tabelle2" ref="A1:K43" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="A1:K43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4D398EB9-C97E-42AA-92F7-6AE29DE141D7}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="51" dataCellStyle="Prozent"/>
-    <tableColumn id="2" xr3:uid="{E9756069-ADA0-44DA-BD5A-4369C95072DB}" name="Measured 0" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{005AB1F1-BFE5-45CA-847D-417DAD89AA04}" name="Measured 1" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{E3C71876-F664-4A7A-AA71-2E31ACC4069D}" name="Measured 2" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{BC750293-B0A8-44E1-A45F-272718A2F9D4}" name="Measured 3" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{CBCC9EA5-0060-42CF-9946-F485D317EEDC}" name="Measured 4" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{954ACA49-1CB4-43E2-8D3B-491DDACD2520}" name="Simulated 0" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{BC36102D-4399-4821-A79B-D730C50292C4}" name="Simulated 1" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{5A468514-B056-47C9-BFA5-F77B2484A7D6}" name="Simulated 2" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{7E227EC4-A466-489A-959E-20930939C04D}" name="Simulated 3" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{2CE95D5E-2931-494A-A3CB-F7E828A884B1}" name="Simulated 4" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{4D398EB9-C97E-42AA-92F7-6AE29DE141D7}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="49" dataCellStyle="Prozent"/>
+    <tableColumn id="2" xr3:uid="{E9756069-ADA0-44DA-BD5A-4369C95072DB}" name="Measured 0" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{005AB1F1-BFE5-45CA-847D-417DAD89AA04}" name="Measured 1" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{E3C71876-F664-4A7A-AA71-2E31ACC4069D}" name="Measured 2" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{BC750293-B0A8-44E1-A45F-272718A2F9D4}" name="Measured 3" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{CBCC9EA5-0060-42CF-9946-F485D317EEDC}" name="Measured 4" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{954ACA49-1CB4-43E2-8D3B-491DDACD2520}" name="Simulated 0" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{BC36102D-4399-4821-A79B-D730C50292C4}" name="Simulated 1" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{5A468514-B056-47C9-BFA5-F77B2484A7D6}" name="Simulated 2" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{7E227EC4-A466-489A-959E-20930939C04D}" name="Simulated 3" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{2CE95D5E-2931-494A-A3CB-F7E828A884B1}" name="Simulated 4" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF36B2CA-385B-484B-B275-55BD92C4801B}" name="Tabelle24" displayName="Tabelle24" ref="A1:D43" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF36B2CA-385B-484B-B275-55BD92C4801B}" name="Tabelle24" displayName="Tabelle24" ref="A1:D43" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="A1:D43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{58C3B881-62A5-4DF8-8BFD-68D5FCB0F545}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="34" dataCellStyle="Prozent"/>
     <tableColumn id="2" xr3:uid="{53710E34-B992-4F41-873A-4C5110A0266C}" name="Measured 0" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{6C6C7CE2-D858-4AED-92D9-931928C8CA16}" name="Simulated 0" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{74A98B76-508E-424C-8440-990DC37CBCFE}" name="Abweichung in %" dataDxfId="0" dataCellStyle="Prozent">
+    <tableColumn id="12" xr3:uid="{74A98B76-508E-424C-8440-990DC37CBCFE}" name="Abweichung in %" dataDxfId="31" dataCellStyle="Prozent">
       <calculatedColumnFormula>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1599,25 +1728,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C1810901-267D-4AC4-B4A6-2907AFF05DA5}" name="Tabelle245" displayName="Tabelle245" ref="A1:C43" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C1810901-267D-4AC4-B4A6-2907AFF05DA5}" name="Tabelle245" displayName="Tabelle245" ref="A1:C43" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="A1:C43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0950BBE4-35EF-480C-992D-744B214D4FAB}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="27" dataCellStyle="Prozent"/>
-    <tableColumn id="3" xr3:uid="{2D365EE0-D75E-4979-AA71-438D47E07627}" name="Measured 1" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{1FAA189E-C8AE-460C-985F-05DEC2CCE6F4}" name="Simulated 1" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{0950BBE4-35EF-480C-992D-744B214D4FAB}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="26" dataCellStyle="Prozent"/>
+    <tableColumn id="3" xr3:uid="{2D365EE0-D75E-4979-AA71-438D47E07627}" name="Measured 1" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{1FAA189E-C8AE-460C-985F-05DEC2CCE6F4}" name="Simulated 1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5A90E7F-3E21-4EF9-B2DA-8C00C1419F8C}" name="Tabelle2456" displayName="Tabelle2456" ref="A1:D43" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5A90E7F-3E21-4EF9-B2DA-8C00C1419F8C}" name="Tabelle2456" displayName="Tabelle2456" ref="A1:D43" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="A1:D43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{13B89490-4AE0-47DD-932C-3DF5A0CF313C}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="20" dataCellStyle="Prozent"/>
-    <tableColumn id="4" xr3:uid="{C170FEE7-8F98-4283-87E4-32421DF5AFBF}" name="Measured 2" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{C48330AC-59A0-4821-A043-94304351D1EE}" name="Simulated 2" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{A6BA671D-3307-4FCF-A1D9-FD945E7755AA}" name="Abweichung in %" dataDxfId="1" dataCellStyle="Prozent">
+    <tableColumn id="1" xr3:uid="{13B89490-4AE0-47DD-932C-3DF5A0CF313C}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="19" dataCellStyle="Prozent"/>
+    <tableColumn id="4" xr3:uid="{C170FEE7-8F98-4283-87E4-32421DF5AFBF}" name="Measured 2" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C48330AC-59A0-4821-A043-94304351D1EE}" name="Simulated 2" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{A6BA671D-3307-4FCF-A1D9-FD945E7755AA}" name="Abweichung in %" dataDxfId="16" dataCellStyle="Prozent">
       <calculatedColumnFormula>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1626,13 +1755,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AF40EF41-2293-4A73-BDAF-7EFE154A7C22}" name="Tabelle24567" displayName="Tabelle24567" ref="A1:D43" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AF40EF41-2293-4A73-BDAF-7EFE154A7C22}" name="Tabelle24567" displayName="Tabelle24567" ref="A1:D43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:D43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{06F3FAD1-77D7-4B3D-A735-2CD15D2991AF}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="13" dataCellStyle="Prozent"/>
-    <tableColumn id="5" xr3:uid="{B511DA0B-C25B-4FC3-96F1-D9D932D708A0}" name="Measured 3" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E059CBD8-3053-4E8E-A390-78FE417BC792}" name="Simulated 3" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{63A6241F-0B7E-4878-9137-A9D34592E29A}" name="Abweichung in %" dataDxfId="2" dataCellStyle="Prozent">
+    <tableColumn id="1" xr3:uid="{06F3FAD1-77D7-4B3D-A735-2CD15D2991AF}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="11" dataCellStyle="Prozent"/>
+    <tableColumn id="5" xr3:uid="{B511DA0B-C25B-4FC3-96F1-D9D932D708A0}" name="Measured 3" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{E059CBD8-3053-4E8E-A390-78FE417BC792}" name="Simulated 3" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{63A6241F-0B7E-4878-9137-A9D34592E29A}" name="Abweichung in %" dataDxfId="8" dataCellStyle="Prozent">
       <calculatedColumnFormula>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1641,13 +1770,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EC416A16-E190-4108-A671-C364CEF72EAF}" name="Tabelle245678" displayName="Tabelle245678" ref="A1:D43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EC416A16-E190-4108-A671-C364CEF72EAF}" name="Tabelle245678" displayName="Tabelle245678" ref="A1:D43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D43" xr:uid="{37EA3900-512D-41B9-8B76-21D729DAE389}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CF89CFA3-F03D-4E07-A25C-6C84E8F48B9D}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="6" dataCellStyle="Prozent"/>
-    <tableColumn id="6" xr3:uid="{BF71998A-11AC-4A51-B997-F6CAE70FE101}" name="Measured 4" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{12F1DFC2-D3E1-4B31-986A-B7FE285A5E5E}" name="Simulated 4" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{0E3F7022-7028-4BC9-9F87-B9BA78727222}" name="Abweichung in %" dataDxfId="3" dataCellStyle="Prozent">
+    <tableColumn id="1" xr3:uid="{CF89CFA3-F03D-4E07-A25C-6C84E8F48B9D}" name="Jana Struct TextureFeature Zuordnung" dataDxfId="3" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{BF71998A-11AC-4A51-B997-F6CAE70FE101}" name="Measured 4" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{12F1DFC2-D3E1-4B31-986A-B7FE285A5E5E}" name="Simulated 4" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{0E3F7022-7028-4BC9-9F87-B9BA78727222}" name="Abweichung in %" dataDxfId="0" dataCellStyle="Prozent">
       <calculatedColumnFormula>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3580,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,7 +3718,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -3603,7 +3732,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3613,22 +3742,22 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>4</v>
+      <c r="A5" s="53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3638,7 +3767,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3648,7 +3777,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3703,7 +3832,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3733,7 +3862,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3743,17 +3872,17 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="53" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3809,6 +3938,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3816,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8C414D-D705-49B8-81E9-074C121822BE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4583,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17B8083-4B57-45D0-AF39-2BC82C149EEE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5349,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88558-F3AB-4306-B59B-2C65D561421C}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6115,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42672185-5E44-4DDA-9010-D9DD108098AA}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6881,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77AC00D-ADB6-4E31-AEDF-A8855EF30165}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -14,11 +14,12 @@
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
     <sheet name="Which_Feature_to_be_watched" sheetId="13" r:id="rId2"/>
-    <sheet name="D0_Compare" sheetId="8" r:id="rId3"/>
-    <sheet name="D1_Compare" sheetId="9" r:id="rId4"/>
-    <sheet name="D2_Compare" sheetId="10" r:id="rId5"/>
-    <sheet name="D3_Compare" sheetId="11" r:id="rId6"/>
-    <sheet name="D4_Compare" sheetId="12" r:id="rId7"/>
+    <sheet name="Tabelle1" sheetId="14" r:id="rId3"/>
+    <sheet name="D0_Compare" sheetId="8" r:id="rId4"/>
+    <sheet name="D1_Compare" sheetId="9" r:id="rId5"/>
+    <sheet name="D2_Compare" sheetId="10" r:id="rId6"/>
+    <sheet name="D3_Compare" sheetId="11" r:id="rId7"/>
+    <sheet name="D4_Compare" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -113,8 +114,92 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matthias Weinhold</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{73BA93FF-FF03-420E-80D4-722018B58085}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+% 1. Short Run Emphasis (SRE), Ref.[1]
+% 2. Long Run Emphasis (LRE), Ref.[1]
+% 3. Gray-Level Nonuniformity (GLN), adapted from Ref.[1]
+% 4. Run-Length Nonuniformity (RLN), adapted from Ref.[1]
+% 5. Run Percentage (RP), adapted from Ref.[1]
+% 6. Low Gray-Level Run Emphasis (LGRE), Ref.[2]
+% 7. High Gray-Level Run Emphasis (HGRE), Ref.[2]
+% 8. Short Run Low Gray-Level Emphasis (SRLGE), Ref.[3]
+% 9. Short Run High Gray-Level Emphasis (SRHGE), Ref.[3]
+% 10. Long Run Low Gray-Level Emphasis (LRLGE), Ref.[3]
+% 11. Long Run High Gray-Level Emphasis (LRHGE), Ref.[3]
+% 12. Gray-Level Variance (GLV), adapted from Ref.[4]
+% 13. Run-Length Variance (RLV), adapted from Ref.[4]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{17A5A4B3-86F2-4CCE-8E7D-3C94BCC5B37B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+% 1. Small Zone Emphasis (SZE), Ref.[1,4]
+% 2. Large Zone Emphasis (LZE), Ref.[1,4]
+% 3. Gray-Level Nonuniformity (GLN), adapted from Ref.[1,4]
+% 4. Zone-Size Nonuniformity (ZSN), adapted from Ref.[1,4]
+% 5. Zone Percentage (ZP), adapted from Ref.[1,4]
+% 6. Low Gray-Level Zone Emphasis (LGZE), Ref.[2,4]
+% 7. High Gray-Level Zone Emphasis (HGZE), Ref.[2,4]
+% 8. Small Zone Low Gray-Level Emphasis (SZLGE), Ref.[3,4]
+% 9. Small Zone High Gray-Level Emphasis (SZHGE), Ref.[3,4]
+% 10. Large Zone Low Gray-Level Emphasis (LZLGE), Ref.[3,4]
+% 11. Large Zone High Gray-Level Emphasis (LZHGE), Ref.[3,4]
+% 12. Gray-Level Variance (GLV), adapted from Ref.[4]
+% 13. Zone-Size Variance (ZSV), adapted from Ref.[4]
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="60">
   <si>
     <t>Jana Struct TextureFeature Zuordnung</t>
   </si>
@@ -289,12 +374,21 @@
   <si>
     <t>GLCM/GTDSM 'Energy'/'SecondAngularMoment'</t>
   </si>
+  <si>
+    <t>withrotate</t>
+  </si>
+  <si>
+    <t>withoutrotate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +439,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +509,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -565,12 +683,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -653,8 +788,15 @@
     <xf numFmtId="11" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="11" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="3"/>
+    <xf numFmtId="11" fontId="8" fillId="11" borderId="14" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3713,7 +3855,7 @@
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3943,11 +4085,674 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8176F4A9-4881-448D-A0E0-F9B6D997CC24}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="58"/>
+    <col min="3" max="3" width="14.5546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58">
+        <v>218.444510111651</v>
+      </c>
+      <c r="C2" s="60">
+        <v>988.419253324588</v>
+      </c>
+      <c r="D2" s="62">
+        <f>B2/C2</f>
+        <v>0.22100390029524827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58">
+        <v>2.58211908296534</v>
+      </c>
+      <c r="C3" s="60">
+        <v>-0.124509105806861</v>
+      </c>
+      <c r="D3" s="62">
+        <f>B3/C3</f>
+        <v>-20.738395527237444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58">
+        <v>5.6309639616370202</v>
+      </c>
+      <c r="C4" s="60">
+        <v>-1.9844974825711801</v>
+      </c>
+      <c r="D4" s="62">
+        <f t="shared" ref="D4:D43" si="0">B4/C4</f>
+        <v>-2.8374759913231831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="58">
+        <v>0.72938110480344698</v>
+      </c>
+      <c r="C5" s="60">
+        <v>0.47703882984194301</v>
+      </c>
+      <c r="D5" s="62">
+        <f t="shared" si="0"/>
+        <v>1.5289763834216858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58">
+        <v>7.8501986803468399E-2</v>
+      </c>
+      <c r="C6" s="60">
+        <v>2.6495291997909901E-2</v>
+      </c>
+      <c r="D6" s="62">
+        <f t="shared" si="0"/>
+        <v>2.9628655086972087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="58">
+        <v>0.91482728510865596</v>
+      </c>
+      <c r="C7" s="60">
+        <v>0.94670770203716403</v>
+      </c>
+      <c r="D7" s="62">
+        <f t="shared" si="0"/>
+        <v>0.96632496296385195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="58">
+        <v>0.96748704472970704</v>
+      </c>
+      <c r="C8" s="60">
+        <v>0.986752354001045</v>
+      </c>
+      <c r="D8" s="62">
+        <f t="shared" si="0"/>
+        <v>0.98047604427471413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="58">
+        <v>3.0656171457048298E-4</v>
+      </c>
+      <c r="C9" s="60">
+        <v>3.7539809120881197E-4</v>
+      </c>
+      <c r="D9" s="62">
+        <f t="shared" si="0"/>
+        <v>0.81663098920756272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58">
+        <v>1.0452025275311401</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1.1722979493796499</v>
+      </c>
+      <c r="D10" s="62">
+        <f t="shared" si="0"/>
+        <v>0.8915843690456291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="58">
+        <v>1.1251106339106699E-4</v>
+      </c>
+      <c r="C11" s="61">
+        <v>6.0689438312768799E-5</v>
+      </c>
+      <c r="D11" s="62">
+        <f t="shared" si="0"/>
+        <v>1.8538821007245201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="58">
+        <v>6.83553869330083E-2</v>
+      </c>
+      <c r="C12" s="60">
+        <v>2.6495291997909901E-2</v>
+      </c>
+      <c r="D12" s="62">
+        <f t="shared" si="0"/>
+        <v>2.5799069109485777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="58">
+        <v>0.40956686534693698</v>
+      </c>
+      <c r="C13" s="60">
+        <v>5.0475525364004799E-2</v>
+      </c>
+      <c r="D13" s="62">
+        <f t="shared" si="0"/>
+        <v>8.1141674582550873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="58">
+        <v>317.95428703791202</v>
+      </c>
+      <c r="C14" s="60">
+        <v>472.41252703055801</v>
+      </c>
+      <c r="D14" s="62">
+        <f t="shared" si="0"/>
+        <v>0.6730437252298882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="58">
+        <v>0.27013282926847898</v>
+      </c>
+      <c r="C15" s="60">
+        <v>0.50892221304275298</v>
+      </c>
+      <c r="D15" s="62">
+        <f t="shared" si="0"/>
+        <v>0.53079394521493595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="58">
+        <v>0.164318470505397</v>
+      </c>
+      <c r="C16" s="60">
+        <v>3.4726475547543698E-2</v>
+      </c>
+      <c r="D16" s="62">
+        <f t="shared" si="0"/>
+        <v>4.731792326014487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="58">
+        <v>0.107230988676825</v>
+      </c>
+      <c r="C17" s="60">
+        <v>6.3055550580579697E-2</v>
+      </c>
+      <c r="D17" s="62">
+        <f t="shared" si="0"/>
+        <v>1.7005796902810768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58">
+        <v>0.442589884567543</v>
+      </c>
+      <c r="C18" s="60">
+        <v>0.67509363650479304</v>
+      </c>
+      <c r="D18" s="62">
+        <f t="shared" si="0"/>
+        <v>0.65559777286450649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="58">
+        <v>6.2058646264836996</v>
+      </c>
+      <c r="C19" s="60">
+        <v>2.2996254539808301</v>
+      </c>
+      <c r="D19" s="62">
+        <f t="shared" si="0"/>
+        <v>2.6986414747414047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="58">
+        <v>353.32087679291902</v>
+      </c>
+      <c r="C20" s="60">
+        <v>1360.1411042480099</v>
+      </c>
+      <c r="D20" s="62">
+        <f t="shared" si="0"/>
+        <v>0.25976781062598786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="59">
+        <v>5.6541183971466499E-5</v>
+      </c>
+      <c r="C21" s="61">
+        <v>4.2281950301884796E-6</v>
+      </c>
+      <c r="D21" s="62">
+        <f t="shared" si="0"/>
+        <v>13.372416259839857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="58">
+        <v>2.2814267695931399E-4</v>
+      </c>
+      <c r="C22" s="60">
+        <v>3.73767712859218E-4</v>
+      </c>
+      <c r="D22" s="62">
+        <f t="shared" si="0"/>
+        <v>0.61038626160105325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="58">
+        <v>0.42343477645814498</v>
+      </c>
+      <c r="C23" s="61">
+        <v>3.8998184417244402E-11</v>
+      </c>
+      <c r="D23" s="62">
+        <f t="shared" si="0"/>
+        <v>10857807428.36091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="58">
+        <v>296903346.25506097</v>
+      </c>
+      <c r="C24" s="60">
+        <v>26041278962.5</v>
+      </c>
+      <c r="D24" s="62">
+        <f t="shared" si="0"/>
+        <v>1.1401258236302761E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="58">
+        <v>0.37612483404087999</v>
+      </c>
+      <c r="C25" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="62">
+        <f t="shared" si="0"/>
+        <v>0.75224966808175997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="58">
+        <v>8.3565216258036701E-2</v>
+      </c>
+      <c r="C26" s="60">
+        <v>3.08158365356925E-2</v>
+      </c>
+      <c r="D26" s="62">
+        <f t="shared" si="0"/>
+        <v>2.7117620565402185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="58">
+        <v>3.6257000720560302</v>
+      </c>
+      <c r="C27" s="60">
+        <v>0.129114280677254</v>
+      </c>
+      <c r="D27" s="62">
+        <f t="shared" si="0"/>
+        <v>28.081324955208988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58">
+        <v>313.51559332047998</v>
+      </c>
+      <c r="C28" s="60">
+        <v>250.48038272619499</v>
+      </c>
+      <c r="D28" s="62">
+        <f t="shared" si="0"/>
+        <v>1.251657275145535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="58">
+        <v>0.17733449163238199</v>
+      </c>
+      <c r="C29" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="62">
+        <f t="shared" si="0"/>
+        <v>0.35466898326476398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="58">
+        <v>7.7433108139881202E-4</v>
+      </c>
+      <c r="C30" s="61">
+        <v>6.2087698874660497E-6</v>
+      </c>
+      <c r="D30" s="62">
+        <f t="shared" si="0"/>
+        <v>124.71569979779608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="58">
+        <v>0.30350314889788599</v>
+      </c>
+      <c r="C31" s="60">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="62">
+        <f t="shared" si="0"/>
+        <v>0.4856050382366176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="58">
+        <v>10.384615384615399</v>
+      </c>
+      <c r="C32" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="62">
+        <f t="shared" si="0"/>
+        <v>4.1538461538461595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="58">
+        <v>9.8102113106598596E-2</v>
+      </c>
+      <c r="C33" s="61">
+        <v>2.6184218722745498E-11</v>
+      </c>
+      <c r="D33" s="62">
+        <f t="shared" si="0"/>
+        <v>3746612192.0750699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="58">
+        <v>4.9126252816014002</v>
+      </c>
+      <c r="C34" s="61">
+        <v>9.0254047195239894E-11</v>
+      </c>
+      <c r="D34" s="62">
+        <f t="shared" si="0"/>
+        <v>54431080203.797195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="58">
+        <v>294037618.53632498</v>
+      </c>
+      <c r="C35" s="60">
+        <v>15066924625</v>
+      </c>
+      <c r="D35" s="62">
+        <f t="shared" si="0"/>
+        <v>1.9515437015490144E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="58">
+        <v>319202380.54655898</v>
+      </c>
+      <c r="C36" s="60">
+        <v>69938696312.5</v>
+      </c>
+      <c r="D36" s="62">
+        <f t="shared" si="0"/>
+        <v>4.5640310354127748E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="59">
+        <v>6.4728707538659796E-8</v>
+      </c>
+      <c r="C37" s="61">
+        <v>1.1417108087940499E-7</v>
+      </c>
+      <c r="D37" s="62">
+        <f t="shared" si="0"/>
+        <v>0.5669448606432177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="58">
+        <v>6.9759014902533598E-2</v>
+      </c>
+      <c r="C38" s="60">
+        <v>1189.2643638689599</v>
+      </c>
+      <c r="D38" s="62">
+        <f t="shared" si="0"/>
+        <v>5.865728178013417E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="58">
+        <v>4.6857725418175401E-4</v>
+      </c>
+      <c r="C39" s="60">
+        <v>2.6274229137790498E-4</v>
+      </c>
+      <c r="D39" s="62">
+        <f t="shared" si="0"/>
+        <v>1.7834100925449967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="58">
+        <v>4.5078915920176797E-3</v>
+      </c>
+      <c r="C40" s="60">
+        <v>5.8826372851554197E-3</v>
+      </c>
+      <c r="D40" s="62">
+        <f t="shared" si="0"/>
+        <v>0.76630452864961585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="58">
+        <v>463.415140430066</v>
+      </c>
+      <c r="C41" s="60">
+        <v>3208.0258279433901</v>
+      </c>
+      <c r="D41" s="62">
+        <f t="shared" si="0"/>
+        <v>0.14445492813477548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="58">
+        <v>0.19967170449324301</v>
+      </c>
+      <c r="C42" s="60">
+        <v>2.36306452794686E-2</v>
+      </c>
+      <c r="D42" s="62">
+        <f t="shared" si="0"/>
+        <v>8.4496932746363491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="58">
+        <v>1.49289044814441E-3</v>
+      </c>
+      <c r="C43" s="60">
+        <v>2.6284129020796398E-4</v>
+      </c>
+      <c r="D43" s="62">
+        <f t="shared" si="0"/>
+        <v>5.6798170750235348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8C414D-D705-49B8-81E9-074C121822BE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17B8083-4B57-45D0-AF39-2BC82C149EEE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -5475,12 +6280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88558-F3AB-4306-B59B-2C65D561421C}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6241,11 +7046,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42672185-5E44-4DDA-9010-D9DD108098AA}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -7007,7 +7812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77AC00D-ADB6-4E31-AEDF-A8855EF30165}">
   <dimension ref="A1:H43"/>
   <sheetViews>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" activeTab="2" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
@@ -375,10 +375,10 @@
     <t>GLCM/GTDSM 'Energy'/'SecondAngularMoment'</t>
   </si>
   <si>
-    <t>withrotate</t>
+    <t>mit transformation</t>
   </si>
   <si>
-    <t>withoutrotate</t>
+    <t>ohne transformation</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -792,7 +792,13 @@
     <xf numFmtId="11" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="3"/>
     <xf numFmtId="11" fontId="8" fillId="11" borderId="14" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -2225,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3EFAE-63B8-4ED6-8665-8A41871E76EB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,31 +2294,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>153.59285217346491</v>
+        <v>153.59285217346499</v>
       </c>
       <c r="C2" s="14">
-        <v>136.90159211131188</v>
+        <v>136.901592111312</v>
       </c>
       <c r="D2" s="14">
-        <v>146.34846454169335</v>
+        <v>146.34846454169301</v>
       </c>
       <c r="E2" s="14">
-        <v>163.77116842511495</v>
+        <v>163.77116842511501</v>
       </c>
       <c r="F2" s="14">
-        <v>124.91556726532504</v>
+        <v>124.915567265325</v>
       </c>
       <c r="G2" s="14">
-        <v>153.59285217346491</v>
+        <v>153.59285217346499</v>
       </c>
       <c r="H2" s="14">
-        <v>145.98244871928367</v>
+        <v>145.98244871928401</v>
       </c>
       <c r="I2" s="14">
-        <v>115.57209886505619</v>
+        <v>115.57209886505601</v>
       </c>
       <c r="J2" s="14">
-        <v>173.03300118485714</v>
+        <v>173.033001184857</v>
       </c>
       <c r="K2" s="42">
         <v>142.45439400249899</v>
@@ -2329,34 +2335,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>0.33144529510144971</v>
+        <v>0.33144529510144999</v>
       </c>
       <c r="C3" s="14">
-        <v>0.27996978862558491</v>
+        <v>0.27996978862558503</v>
       </c>
       <c r="D3" s="14">
-        <v>0.47079188485947954</v>
+        <v>0.47079188485947998</v>
       </c>
       <c r="E3" s="14">
-        <v>0.17173835249485706</v>
+        <v>0.171738352494857</v>
       </c>
       <c r="F3" s="14">
-        <v>4.9073296165689249E-2</v>
+        <v>4.9073296165689298E-2</v>
       </c>
       <c r="G3" s="14">
-        <v>0.33144529510144971</v>
+        <v>0.33144529510144999</v>
       </c>
       <c r="H3" s="14">
-        <v>6.6106260809492869E-3</v>
+        <v>6.6106260809492903E-3</v>
       </c>
       <c r="I3" s="14">
-        <v>-6.9474207436665034E-2</v>
+        <v>-6.9474207436665006E-2</v>
       </c>
       <c r="J3" s="14">
-        <v>0.54236740988396359</v>
+        <v>0.54236740988396404</v>
       </c>
       <c r="K3" s="42">
-        <v>0.42992551916623173</v>
+        <v>0.42992551916623201</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="22"/>
@@ -2366,34 +2372,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>-9.1666779024141665E-2</v>
+        <v>-9.1666779024141706E-2</v>
       </c>
       <c r="C4" s="14">
-        <v>-0.20892272327322337</v>
+        <v>-0.208922723273223</v>
       </c>
       <c r="D4" s="14">
-        <v>8.8665888006265181E-2</v>
+        <v>8.8665888006265195E-2</v>
       </c>
       <c r="E4" s="14">
         <v>-0.54199981745881098</v>
       </c>
       <c r="F4" s="14">
-        <v>-0.19427810115274191</v>
+        <v>-0.19427810115274199</v>
       </c>
       <c r="G4" s="14">
-        <v>-9.1666779024141665E-2</v>
+        <v>-9.1666779024141706E-2</v>
       </c>
       <c r="H4" s="14">
-        <v>-0.20281035307862894</v>
+        <v>-0.20281035307862899</v>
       </c>
       <c r="I4" s="14">
-        <v>-0.21504692652973167</v>
+        <v>-0.21504692652973201</v>
       </c>
       <c r="J4" s="14">
-        <v>-0.20889228226476808</v>
+        <v>-0.208892282264768</v>
       </c>
       <c r="K4" s="42">
-        <v>-8.4661537281955024E-2</v>
+        <v>-8.4661537281954996E-2</v>
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="22"/>
@@ -2403,34 +2409,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>1.3416292925342581E-3</v>
+        <v>1.3416292925342601E-3</v>
       </c>
       <c r="C5" s="15">
-        <v>8.930668578932511E-4</v>
+        <v>8.9306685789325099E-4</v>
       </c>
       <c r="D5" s="15">
-        <v>7.1691358511030711E-4</v>
+        <v>7.1691358511030701E-4</v>
       </c>
       <c r="E5" s="15">
-        <v>5.8765619477489845E-4</v>
+        <v>5.8765619477489899E-4</v>
       </c>
       <c r="F5" s="15">
-        <v>5.4084543882104534E-4</v>
+        <v>5.4084543882104502E-4</v>
       </c>
       <c r="G5" s="15">
-        <v>1.3416292925342581E-3</v>
+        <v>1.3416292925342601E-3</v>
       </c>
       <c r="H5" s="15">
-        <v>9.6692794455253387E-4</v>
+        <v>9.6692794455253397E-4</v>
       </c>
       <c r="I5" s="15">
-        <v>6.9115405879994541E-4</v>
+        <v>6.9115405879994498E-4</v>
       </c>
       <c r="J5" s="15">
-        <v>6.1995798669165912E-4</v>
+        <v>6.1995798669165901E-4</v>
       </c>
       <c r="K5" s="43">
-        <v>5.4590766907031021E-4</v>
+        <v>5.4590766907031E-4</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="23"/>
@@ -2440,34 +2446,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>82.941612976187955</v>
+        <v>82.941612976187997</v>
       </c>
       <c r="C6" s="15">
-        <v>149.93179673009072</v>
+        <v>149.93179673009101</v>
       </c>
       <c r="D6" s="15">
-        <v>208.52353107172246</v>
+        <v>208.523531071722</v>
       </c>
       <c r="E6" s="15">
-        <v>267.45521789112877</v>
+        <v>267.455217891129</v>
       </c>
       <c r="F6" s="15">
-        <v>280.79590456284541</v>
+        <v>280.79590456284501</v>
       </c>
       <c r="G6" s="15">
-        <v>82.941612976187955</v>
+        <v>82.941612976187997</v>
       </c>
       <c r="H6" s="15">
-        <v>118.72880882422849</v>
+        <v>118.72880882422901</v>
       </c>
       <c r="I6" s="15">
-        <v>227.66368508762017</v>
+        <v>227.66368508762</v>
       </c>
       <c r="J6" s="15">
-        <v>227.38796245414574</v>
+        <v>227.38796245414599</v>
       </c>
       <c r="K6" s="43">
-        <v>309.26353319089969</v>
+        <v>309.26353319089998</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="23"/>
@@ -2477,34 +2483,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>0.54137640003339027</v>
+        <v>0.54137640003339005</v>
       </c>
       <c r="C7" s="15">
-        <v>0.52299762846486986</v>
+        <v>0.52299762846486997</v>
       </c>
       <c r="D7" s="15">
-        <v>0.51915797644990469</v>
+        <v>0.51915797644990502</v>
       </c>
       <c r="E7" s="15">
-        <v>0.52008772204255982</v>
+        <v>0.52008772204256004</v>
       </c>
       <c r="F7" s="15">
         <v>0.56252045929133399</v>
       </c>
       <c r="G7" s="15">
-        <v>0.54137640003339027</v>
+        <v>0.54137640003339005</v>
       </c>
       <c r="H7" s="15">
-        <v>0.56821503653618388</v>
+        <v>0.56821503653618399</v>
       </c>
       <c r="I7" s="15">
-        <v>0.44662995261773647</v>
+        <v>0.44662995261773603</v>
       </c>
       <c r="J7" s="15">
-        <v>0.62268236033051094</v>
+        <v>0.62268236033051105</v>
       </c>
       <c r="K7" s="43">
-        <v>0.47693986728458243</v>
+        <v>0.47693986728458199</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="23"/>
@@ -2514,34 +2520,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>0.22773735206397272</v>
+        <v>0.227737352063973</v>
       </c>
       <c r="C8" s="15">
-        <v>0.18939635333989743</v>
+        <v>0.18939635333989699</v>
       </c>
       <c r="D8" s="15">
-        <v>0.16905292863165622</v>
+        <v>0.169052928631656</v>
       </c>
       <c r="E8" s="15">
-        <v>0.1508828872539664</v>
+        <v>0.15088288725396601</v>
       </c>
       <c r="F8" s="15">
-        <v>0.1536775487827052</v>
+        <v>0.15367754878270501</v>
       </c>
       <c r="G8" s="15">
-        <v>0.22773735206397272</v>
+        <v>0.227737352063973</v>
       </c>
       <c r="H8" s="15">
-        <v>0.19719491517534699</v>
+        <v>0.19719491517534701</v>
       </c>
       <c r="I8" s="15">
-        <v>0.1582498589921415</v>
+        <v>0.158249858992142</v>
       </c>
       <c r="J8" s="15">
-        <v>0.16902538127147404</v>
+        <v>0.16902538127147401</v>
       </c>
       <c r="K8" s="43">
-        <v>0.15232091218076918</v>
+        <v>0.15232091218076901</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="23"/>
@@ -2551,34 +2557,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>4.8940948857609671E-3</v>
+        <v>4.8940948857609697E-3</v>
       </c>
       <c r="C9" s="15">
-        <v>6.2584260113764563E-3</v>
+        <v>6.2584260113764598E-3</v>
       </c>
       <c r="D9" s="15">
-        <v>6.5837403859476829E-3</v>
+        <v>6.5837403859476803E-3</v>
       </c>
       <c r="E9" s="15">
-        <v>7.4931934084728358E-3</v>
+        <v>7.4931934084728402E-3</v>
       </c>
       <c r="F9" s="15">
         <v>7.8370834819446109E-3</v>
       </c>
       <c r="G9" s="15">
-        <v>4.8940948857609671E-3</v>
+        <v>4.8940948857609697E-3</v>
       </c>
       <c r="H9" s="15">
-        <v>6.1274064192241885E-3</v>
+        <v>6.1274064192241903E-3</v>
       </c>
       <c r="I9" s="15">
-        <v>6.8086565533089713E-3</v>
+        <v>6.8086565533089704E-3</v>
       </c>
       <c r="J9" s="15">
-        <v>7.5088770920108605E-3</v>
+        <v>7.5088770920108596E-3</v>
       </c>
       <c r="K9" s="43">
-        <v>7.456912129170077E-3</v>
+        <v>7.4569121291700796E-3</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="23"/>
@@ -2588,34 +2594,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>9.8703730932133009</v>
+        <v>9.8703730932132991</v>
       </c>
       <c r="C10" s="15">
-        <v>10.469654859633128</v>
+        <v>10.469654859633099</v>
       </c>
       <c r="D10" s="15">
-        <v>10.745422281943698</v>
+        <v>10.7454222819437</v>
       </c>
       <c r="E10" s="15">
-        <v>11.001190150491194</v>
+        <v>11.001190150491199</v>
       </c>
       <c r="F10" s="15">
-        <v>11.135875930693926</v>
+        <v>11.135875930693899</v>
       </c>
       <c r="G10" s="15">
-        <v>9.8703730932133009</v>
+        <v>9.8703730932132991</v>
       </c>
       <c r="H10" s="15">
-        <v>10.305930638769215</v>
+        <v>10.305930638769199</v>
       </c>
       <c r="I10" s="15">
-        <v>10.771075636707334</v>
+        <v>10.7710756367073</v>
       </c>
       <c r="J10" s="15">
-        <v>10.960637972279798</v>
+        <v>10.9606379722798</v>
       </c>
       <c r="K10" s="43">
-        <v>11.109814244131959</v>
+        <v>11.109814244132</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="23"/>
@@ -2625,34 +2631,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>2.2003700187942423E-2</v>
+        <v>2.2003700187942399E-2</v>
       </c>
       <c r="C11" s="15">
-        <v>3.8172816704620076E-2</v>
+        <v>3.8172816704620097E-2</v>
       </c>
       <c r="D11" s="15">
-        <v>5.273596762483506E-2</v>
+        <v>5.2735967624835102E-2</v>
       </c>
       <c r="E11" s="15">
-        <v>6.7716734214749316E-2</v>
+        <v>6.7716734214749302E-2</v>
       </c>
       <c r="F11" s="15">
-        <v>7.7626340346152886E-2</v>
+        <v>7.76263403461529E-2</v>
       </c>
       <c r="G11" s="15">
-        <v>2.2003700187942423E-2</v>
+        <v>2.2003700187942399E-2</v>
       </c>
       <c r="H11" s="15">
-        <v>3.3558620130145773E-2</v>
+        <v>3.3558620130145801E-2</v>
       </c>
       <c r="I11" s="15">
-        <v>4.9889274404494581E-2</v>
+        <v>4.9889274404494602E-2</v>
       </c>
       <c r="J11" s="15">
         <v>7.2963583457108599E-2</v>
       </c>
       <c r="K11" s="43">
-        <v>7.2253010922647562E-2</v>
+        <v>7.2253010922647604E-2</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="23"/>
@@ -2662,34 +2668,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>7.0766290081309338</v>
+        <v>7.0766290081309302</v>
       </c>
       <c r="C12" s="15">
-        <v>9.5635661441961535</v>
+        <v>9.5635661441961499</v>
       </c>
       <c r="D12" s="15">
-        <v>11.34083584267281</v>
+        <v>11.340835842672799</v>
       </c>
       <c r="E12" s="15">
-        <v>12.986173104841159</v>
+        <v>12.9861731048412</v>
       </c>
       <c r="F12" s="15">
-        <v>13.125394896091274</v>
+        <v>13.125394896091301</v>
       </c>
       <c r="G12" s="15">
-        <v>7.0766290081309338</v>
+        <v>7.0766290081309302</v>
       </c>
       <c r="H12" s="15">
-        <v>8.659625741265188</v>
+        <v>8.6596257412651898</v>
       </c>
       <c r="I12" s="15">
-        <v>12.053370069302954</v>
+        <v>12.053370069303</v>
       </c>
       <c r="J12" s="15">
-        <v>11.720139921723119</v>
+        <v>11.720139921723099</v>
       </c>
       <c r="K12" s="43">
-        <v>13.753945413248813</v>
+        <v>13.7539454132488</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="23"/>
@@ -2699,34 +2705,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>0.97141725312401339</v>
+        <v>0.97141725312401295</v>
       </c>
       <c r="C13" s="16">
-        <v>0.97954804532957851</v>
+        <v>0.97954804532957895</v>
       </c>
       <c r="D13" s="16">
-        <v>0.98198845656727707</v>
+        <v>0.98198845656727696</v>
       </c>
       <c r="E13" s="16">
-        <v>0.98519410439940269</v>
+        <v>0.98519410439940303</v>
       </c>
       <c r="F13" s="16">
-        <v>0.98216070357785334</v>
+        <v>0.98216070357785301</v>
       </c>
       <c r="G13" s="16">
-        <v>0.97141725312401339</v>
+        <v>0.97141725312401295</v>
       </c>
       <c r="H13" s="16">
-        <v>0.97499436556231645</v>
+        <v>0.974994365562316</v>
       </c>
       <c r="I13" s="16">
-        <v>0.9828355876969781</v>
+        <v>0.98283558769697799</v>
       </c>
       <c r="J13" s="16">
         <v>0.98143503656144104</v>
       </c>
       <c r="K13" s="44">
-        <v>0.98403710385069376</v>
+        <v>0.98403710385069398</v>
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="24"/>
@@ -2736,34 +2742,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>1.1238327243199353</v>
+        <v>1.12383272431994</v>
       </c>
       <c r="C14" s="16">
-        <v>1.0844900422450214</v>
+        <v>1.0844900422450201</v>
       </c>
       <c r="D14" s="16">
-        <v>1.0756117127958282</v>
+        <v>1.07561171279583</v>
       </c>
       <c r="E14" s="16">
-        <v>1.0610074252458361</v>
+        <v>1.0610074252458399</v>
       </c>
       <c r="F14" s="16">
-        <v>1.0713571856885868</v>
+        <v>1.07135718568859</v>
       </c>
       <c r="G14" s="16">
-        <v>1.1238327243199353</v>
+        <v>1.12383272431994</v>
       </c>
       <c r="H14" s="16">
-        <v>1.1018255578093301</v>
+        <v>1.1018255578093299</v>
       </c>
       <c r="I14" s="16">
-        <v>1.0731217356368021</v>
+        <v>1.0731217356367999</v>
       </c>
       <c r="J14" s="16">
-        <v>1.076043338683788</v>
+        <v>1.07604333868379</v>
       </c>
       <c r="K14" s="44">
-        <v>1.0647424333533773</v>
+        <v>1.0647424333533799</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="24"/>
@@ -2773,34 +2779,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>3.0895004903262566E-2</v>
+        <v>3.08950049032626E-2</v>
       </c>
       <c r="C15" s="16">
-        <v>2.3730596623562923E-2</v>
+        <v>2.3730596623562899E-2</v>
       </c>
       <c r="D15" s="16">
-        <v>2.0876263405163822E-2</v>
+        <v>2.0876263405163801E-2</v>
       </c>
       <c r="E15" s="16">
-        <v>1.8758823145393112E-2</v>
+        <v>1.8758823145393101E-2</v>
       </c>
       <c r="F15" s="16">
-        <v>1.7259322599524438E-2</v>
+        <v>1.7259322599524399E-2</v>
       </c>
       <c r="G15" s="16">
-        <v>3.0895004903262566E-2</v>
+        <v>3.08950049032626E-2</v>
       </c>
       <c r="H15" s="16">
-        <v>2.5531724055643096E-2</v>
+        <v>2.55317240556431E-2</v>
       </c>
       <c r="I15" s="16">
-        <v>2.1146883168222216E-2</v>
+        <v>2.1146883168222198E-2</v>
       </c>
       <c r="J15" s="16">
-        <v>1.8089910184500506E-2</v>
+        <v>1.8089910184500499E-2</v>
       </c>
       <c r="K15" s="44">
-        <v>1.7902403929655454E-2</v>
+        <v>1.7902403929655499E-2</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="24"/>
@@ -2810,34 +2816,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>0.9272018401782024</v>
+        <v>0.92720184017820195</v>
       </c>
       <c r="C16" s="16">
-        <v>0.94712798321999692</v>
+        <v>0.94712798321999703</v>
       </c>
       <c r="D16" s="16">
-        <v>0.95336858969253468</v>
+        <v>0.95336858969253502</v>
       </c>
       <c r="E16" s="16">
-        <v>0.9614243716615628</v>
+        <v>0.96142437166156303</v>
       </c>
       <c r="F16" s="16">
         <v>0.953560064640808</v>
       </c>
       <c r="G16" s="16">
-        <v>0.9272018401782024</v>
+        <v>0.92720184017820195</v>
       </c>
       <c r="H16" s="16">
-        <v>0.93565511481223873</v>
+        <v>0.93565511481223895</v>
       </c>
       <c r="I16" s="16">
-        <v>0.95558722743268509</v>
+        <v>0.95558722743268498</v>
       </c>
       <c r="J16" s="16">
-        <v>0.95184067346165835</v>
+        <v>0.95184067346165802</v>
       </c>
       <c r="K16" s="44">
-        <v>0.95840092541133082</v>
+        <v>0.95840092541133104</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="24"/>
@@ -2850,31 +2856,31 @@
         <v>0.96173369777430695</v>
       </c>
       <c r="C17" s="16">
-        <v>0.9729888432178504</v>
+        <v>0.97298884321784995</v>
       </c>
       <c r="D17" s="16">
-        <v>0.97592483852025846</v>
+        <v>0.97592483852025902</v>
       </c>
       <c r="E17" s="16">
-        <v>0.98032657879205176</v>
+        <v>0.98032657879205198</v>
       </c>
       <c r="F17" s="16">
-        <v>0.97676688793440047</v>
+        <v>0.97676688793440103</v>
       </c>
       <c r="G17" s="16">
         <v>0.96173369777430695</v>
       </c>
       <c r="H17" s="16">
-        <v>0.96742543171114637</v>
+        <v>0.96742543171114603</v>
       </c>
       <c r="I17" s="16">
-        <v>0.97684458398744156</v>
+        <v>0.97684458398744201</v>
       </c>
       <c r="J17" s="16">
-        <v>0.97553337247993732</v>
+        <v>0.97553337247993699</v>
       </c>
       <c r="K17" s="44">
-        <v>0.97900313971742581</v>
+        <v>0.97900313971742603</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="24"/>
@@ -2884,34 +2890,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>2.8675632085525229E-2</v>
+        <v>2.8675632085525201E-2</v>
       </c>
       <c r="C18" s="16">
-        <v>2.4973152185589834E-2</v>
+        <v>2.4973152185589799E-2</v>
       </c>
       <c r="D18" s="16">
-        <v>2.5868123360370608E-2</v>
+        <v>2.5868123360370601E-2</v>
       </c>
       <c r="E18" s="16">
-        <v>2.6052570523685013E-2</v>
+        <v>2.6052570523684999E-2</v>
       </c>
       <c r="F18" s="16">
-        <v>2.2388815867492733E-2</v>
+        <v>2.2388815867492699E-2</v>
       </c>
       <c r="G18" s="16">
-        <v>2.8675632085525229E-2</v>
+        <v>2.8675632085525201E-2</v>
       </c>
       <c r="H18" s="16">
-        <v>2.3895076149396472E-2</v>
+        <v>2.38950761493965E-2</v>
       </c>
       <c r="I18" s="16">
-        <v>2.3938149136099835E-2</v>
+        <v>2.39381491360998E-2</v>
       </c>
       <c r="J18" s="16">
-        <v>2.3752899511891946E-2</v>
+        <v>2.3752899511891901E-2</v>
       </c>
       <c r="K18" s="44">
-        <v>2.5390833313455673E-2</v>
+        <v>2.53908333134557E-2</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="24"/>
@@ -2921,34 +2927,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>462.0004060089322</v>
+        <v>462.00040600893198</v>
       </c>
       <c r="C19" s="16">
         <v>758.60732247032797</v>
       </c>
       <c r="D19" s="16">
-        <v>937.05034095467306</v>
+        <v>937.05034095467295</v>
       </c>
       <c r="E19" s="16">
-        <v>1224.8697571743928</v>
+        <v>1224.8697571743901</v>
       </c>
       <c r="F19" s="16">
-        <v>1357.9844093543875</v>
+        <v>1357.98440935439</v>
       </c>
       <c r="G19" s="16">
-        <v>462.0004060089322</v>
+        <v>462.00040600893198</v>
       </c>
       <c r="H19" s="16">
-        <v>710.65152129817443</v>
+        <v>710.65152129817398</v>
       </c>
       <c r="I19" s="16">
         <v>943.634391321816</v>
       </c>
       <c r="J19" s="16">
-        <v>1234.0503611556983</v>
+        <v>1234.0503611557001</v>
       </c>
       <c r="K19" s="44">
-        <v>1232.375826819002</v>
+        <v>1232.3758268189999</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="24"/>
@@ -2958,34 +2964,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>523.05399918798207</v>
+        <v>523.05399918798196</v>
       </c>
       <c r="C20" s="16">
-        <v>837.89800844900424</v>
+        <v>837.89800844900401</v>
       </c>
       <c r="D20" s="16">
-        <v>1022.1073004412353</v>
+        <v>1022.10730044124</v>
       </c>
       <c r="E20" s="16">
-        <v>1297.5490668272125</v>
+        <v>1297.54906682721</v>
       </c>
       <c r="F20" s="16">
-        <v>1443.592044773136</v>
+        <v>1443.5920447731401</v>
       </c>
       <c r="G20" s="16">
-        <v>523.05399918798207</v>
+        <v>523.05399918798196</v>
       </c>
       <c r="H20" s="16">
-        <v>796.84787018255577</v>
+        <v>796.84787018255599</v>
       </c>
       <c r="I20" s="16">
-        <v>1016.1976697468858</v>
+        <v>1016.19766974689</v>
       </c>
       <c r="J20" s="16">
-        <v>1345.622993579454</v>
+        <v>1345.6229935794499</v>
       </c>
       <c r="K20" s="44">
-        <v>1311.7797153738225</v>
+        <v>1311.77971537382</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="24"/>
@@ -2995,10 +3001,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>4.0343546780203618E-2</v>
+        <v>4.0343546780203597E-2</v>
       </c>
       <c r="C21" s="16">
-        <v>6.3954870286779986E-2</v>
+        <v>6.395487028678E-2</v>
       </c>
       <c r="D21" s="16">
         <v>7.0686796868208807E-2</v>
@@ -3007,22 +3013,22 @@
         <v>8.9724983063332098E-2</v>
       </c>
       <c r="F21" s="16">
-        <v>0.1102674777581326</v>
+        <v>0.110267477758133</v>
       </c>
       <c r="G21" s="16">
-        <v>4.0343546780203618E-2</v>
+        <v>4.0343546780203597E-2</v>
       </c>
       <c r="H21" s="16">
-        <v>6.9427941124326376E-2</v>
+        <v>6.9427941124326403E-2</v>
       </c>
       <c r="I21" s="16">
         <v>7.4835064552882205E-2</v>
       </c>
       <c r="J21" s="16">
-        <v>7.7327080722342387E-2</v>
+        <v>7.7327080722342401E-2</v>
       </c>
       <c r="K21" s="44">
-        <v>8.014177289262843E-2</v>
+        <v>8.0141772892628402E-2</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="24"/>
@@ -3031,35 +3037,35 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="63">
         <v>9.6089125820768905E-5</v>
       </c>
-      <c r="C22" s="16">
-        <v>8.8214424609940178E-5</v>
-      </c>
-      <c r="D22" s="16">
-        <v>7.5570456903988327E-5</v>
-      </c>
-      <c r="E22" s="16">
-        <v>6.6007645145206619E-5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>6.5476394988886116E-5</v>
-      </c>
-      <c r="G22" s="16">
+      <c r="C22" s="65">
+        <v>8.8214424609940205E-5</v>
+      </c>
+      <c r="D22" s="65">
+        <v>7.55704569039883E-5</v>
+      </c>
+      <c r="E22" s="65">
+        <v>6.6007645145206605E-5</v>
+      </c>
+      <c r="F22" s="65">
+        <v>6.5476394988886103E-5</v>
+      </c>
+      <c r="G22" s="65">
         <v>9.6089125820768905E-5</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="65">
         <v>9.6402814407337402E-5</v>
       </c>
-      <c r="I22" s="16">
-        <v>7.7265033667444036E-5</v>
-      </c>
-      <c r="J22" s="16">
-        <v>6.1494540170709517E-5</v>
-      </c>
-      <c r="K22" s="44">
-        <v>6.1315672747789868E-5</v>
+      <c r="I22" s="65">
+        <v>7.7265033667443995E-5</v>
+      </c>
+      <c r="J22" s="65">
+        <v>6.1494540170709504E-5</v>
+      </c>
+      <c r="K22" s="67">
+        <v>6.1315672747789895E-5</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="24"/>
@@ -3069,22 +3075,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>0.64914337908437969</v>
+        <v>0.64914337908438002</v>
       </c>
       <c r="C23" s="17">
-        <v>0.76818835895644078</v>
+        <v>0.768188358956441</v>
       </c>
       <c r="D23" s="17">
-        <v>0.80789598108747007</v>
+        <v>0.80789598108746996</v>
       </c>
       <c r="E23" s="17">
-        <v>0.82139996308600938</v>
+        <v>0.82139996308600904</v>
       </c>
       <c r="F23" s="17">
-        <v>0.81539375233819655</v>
+        <v>0.815393752338197</v>
       </c>
       <c r="G23" s="17">
-        <v>0.64914337908437969</v>
+        <v>0.64914337908438002</v>
       </c>
       <c r="H23" s="17">
         <v>0.77174025625287701</v>
@@ -3093,7 +3099,7 @@
         <v>0.83382224998843102</v>
       </c>
       <c r="J23" s="17">
-        <v>0.80587896825396788</v>
+        <v>0.80587896825396799</v>
       </c>
       <c r="K23" s="45">
         <v>0.80480117960426201</v>
@@ -3106,34 +3112,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>4.3876651982378858</v>
+        <v>4.3876651982378903</v>
       </c>
       <c r="C24" s="17">
-        <v>3.2566037735849056</v>
+        <v>3.25660377358491</v>
       </c>
       <c r="D24" s="17">
-        <v>2.7340425531914891</v>
+        <v>2.73404255319149</v>
       </c>
       <c r="E24" s="17">
-        <v>2.0697674418604648</v>
+        <v>2.0697674418604701</v>
       </c>
       <c r="F24" s="17">
-        <v>2.2491582491582491</v>
+        <v>2.24915824915825</v>
       </c>
       <c r="G24" s="17">
-        <v>4.3876651982378858</v>
+        <v>4.3876651982378903</v>
       </c>
       <c r="H24" s="17">
-        <v>3.1203007518796988</v>
+        <v>3.1203007518797001</v>
       </c>
       <c r="I24" s="17">
-        <v>2.4897959183673475</v>
+        <v>2.4897959183673501</v>
       </c>
       <c r="J24" s="17">
-        <v>2.7321428571428568</v>
+        <v>2.7321428571428599</v>
       </c>
       <c r="K24" s="45">
-        <v>2.3013698630136989</v>
+        <v>2.3013698630136998</v>
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="25"/>
@@ -3143,34 +3149,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>3.1768518698208785E-2</v>
+        <v>3.1768518698208799E-2</v>
       </c>
       <c r="C25" s="17">
-        <v>2.2997508009967943E-2</v>
+        <v>2.2997508009967901E-2</v>
       </c>
       <c r="D25" s="17">
-        <v>2.2056234595845266E-2</v>
+        <v>2.2056234595845301E-2</v>
       </c>
       <c r="E25" s="17">
-        <v>1.9061599761592031E-2</v>
+        <v>1.9061599761592E-2</v>
       </c>
       <c r="F25" s="17">
-        <v>1.7900667732317552E-2</v>
+        <v>1.7900667732317601E-2</v>
       </c>
       <c r="G25" s="17">
-        <v>3.1768518698208785E-2</v>
+        <v>3.1768518698208799E-2</v>
       </c>
       <c r="H25" s="17">
-        <v>2.6711515631183218E-2</v>
+        <v>2.6711515631183201E-2</v>
       </c>
       <c r="I25" s="17">
-        <v>2.2166689805173775E-2</v>
+        <v>2.2166689805173799E-2</v>
       </c>
       <c r="J25" s="17">
-        <v>1.8954081632653073E-2</v>
+        <v>1.8954081632653101E-2</v>
       </c>
       <c r="K25" s="45">
-        <v>1.8366485269281276E-2</v>
+        <v>1.83664852692813E-2</v>
       </c>
       <c r="N25" s="32"/>
       <c r="O25" s="25"/>
@@ -3183,31 +3189,31 @@
         <v>2.7720425194118901E-2</v>
       </c>
       <c r="C26" s="16">
-        <v>2.4535061995345192E-2</v>
+        <v>2.4535061995345199E-2</v>
       </c>
       <c r="D26" s="16">
-        <v>2.4451001232411597E-2</v>
+        <v>2.44510012324116E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>2.5381903099331325E-2</v>
+        <v>2.5381903099331301E-2</v>
       </c>
       <c r="F26" s="16">
-        <v>1.9642928662282941E-2</v>
+        <v>1.9642928662282899E-2</v>
       </c>
       <c r="G26" s="16">
         <v>2.7720425194118901E-2</v>
       </c>
       <c r="H26" s="16">
-        <v>2.2308500978157467E-2</v>
+        <v>2.2308500978157501E-2</v>
       </c>
       <c r="I26" s="16">
-        <v>2.2244505520195215E-2</v>
+        <v>2.2244505520195201E-2</v>
       </c>
       <c r="J26" s="16">
-        <v>2.2291326792552465E-2</v>
+        <v>2.22913267925525E-2</v>
       </c>
       <c r="K26" s="44">
-        <v>2.3559308428948995E-2</v>
+        <v>2.3559308428948999E-2</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="24"/>
@@ -3220,13 +3226,13 @@
         <v>447.30635065638103</v>
       </c>
       <c r="C27" s="16">
-        <v>739.2609691767808</v>
+        <v>739.26096917678103</v>
       </c>
       <c r="D27" s="16">
-        <v>917.02044613807539</v>
+        <v>917.02044613807504</v>
       </c>
       <c r="E27" s="16">
-        <v>1206.7224507770868</v>
+        <v>1206.72245077709</v>
       </c>
       <c r="F27" s="16">
         <v>1336.5825004997</v>
@@ -3235,16 +3241,16 @@
         <v>447.30635065638103</v>
       </c>
       <c r="H27" s="16">
-        <v>689.8101194500789</v>
+        <v>689.81011945007901</v>
       </c>
       <c r="I27" s="16">
-        <v>926.64887728226381</v>
+        <v>926.64887728226404</v>
       </c>
       <c r="J27" s="16">
-        <v>1206.1629993757801</v>
+        <v>1206.1629993757799</v>
       </c>
       <c r="K27" s="44">
-        <v>1213.2740584842209</v>
+        <v>1213.2740584842199</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="24"/>
@@ -3254,34 +3260,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>3.365338233600812E-2</v>
+        <v>3.3653382336008099E-2</v>
       </c>
       <c r="C28" s="16">
-        <v>2.6738302267191736E-2</v>
+        <v>2.6738302267191701E-2</v>
       </c>
       <c r="D28" s="16">
-        <v>3.2464299014927367E-2</v>
+        <v>3.2464299014927402E-2</v>
       </c>
       <c r="E28" s="16">
-        <v>2.9636080857039691E-2</v>
+        <v>2.9636080857039698E-2</v>
       </c>
       <c r="F28" s="16">
-        <v>3.3372364688331942E-2</v>
+        <v>3.33723646883319E-2</v>
       </c>
       <c r="G28" s="16">
-        <v>3.365338233600812E-2</v>
+        <v>3.3653382336008099E-2</v>
       </c>
       <c r="H28" s="16">
-        <v>3.0242683259677765E-2</v>
+        <v>3.0242683259677799E-2</v>
       </c>
       <c r="I28" s="16">
-        <v>3.1632017552028872E-2</v>
+        <v>3.16320175520289E-2</v>
       </c>
       <c r="J28" s="16">
-        <v>3.0526602552617133E-2</v>
+        <v>3.0526602552617101E-2</v>
       </c>
       <c r="K28" s="44">
-        <v>3.2717197669780887E-2</v>
+        <v>3.2717197669780901E-2</v>
       </c>
       <c r="N28" s="31"/>
       <c r="O28" s="24"/>
@@ -3291,31 +3297,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>0.40584913349764207</v>
+        <v>0.40584913349764201</v>
       </c>
       <c r="C29" s="17">
-        <v>0.54762548949804191</v>
+        <v>0.54762548949804202</v>
       </c>
       <c r="D29" s="17">
-        <v>0.60794225642573263</v>
+        <v>0.60794225642573296</v>
       </c>
       <c r="E29" s="17">
-        <v>0.62892241807485538</v>
+        <v>0.62892241807485505</v>
       </c>
       <c r="F29" s="17">
-        <v>0.61922252831343727</v>
+        <v>0.61922252831343705</v>
       </c>
       <c r="G29" s="17">
-        <v>0.40584913349764207</v>
+        <v>0.40584913349764201</v>
       </c>
       <c r="H29" s="17">
-        <v>0.55268811125558215</v>
+        <v>0.55268811125558204</v>
       </c>
       <c r="I29" s="17">
-        <v>0.65072423527234069</v>
+        <v>0.65072423527234102</v>
       </c>
       <c r="J29" s="17">
-        <v>0.6068112244897953</v>
+        <v>0.60681122448979496</v>
       </c>
       <c r="K29" s="45">
         <v>0.60278663914430497</v>
@@ -3328,34 +3334,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>0.57614213197969544</v>
+        <v>0.57614213197969499</v>
       </c>
       <c r="C30" s="17">
-        <v>0.67430025445292618</v>
+        <v>0.67430025445292596</v>
       </c>
       <c r="D30" s="17">
-        <v>0.71755725190839681</v>
+        <v>0.71755725190839703</v>
       </c>
       <c r="E30" s="17">
-        <v>0.76982097186700771</v>
+        <v>0.76982097186700804</v>
       </c>
       <c r="F30" s="17">
-        <v>0.75380710659898476</v>
+        <v>0.75380710659898498</v>
       </c>
       <c r="G30" s="17">
-        <v>0.57614213197969544</v>
+        <v>0.57614213197969499</v>
       </c>
       <c r="H30" s="17">
-        <v>0.6785714285714286</v>
+        <v>0.67857142857142905</v>
       </c>
       <c r="I30" s="17">
-        <v>0.75000000000000011</v>
+        <v>0.75</v>
       </c>
       <c r="J30" s="17">
-        <v>0.7124681933842244</v>
+        <v>0.71246819338422396</v>
       </c>
       <c r="K30" s="45">
-        <v>0.7448979591836733</v>
+        <v>0.74489795918367296</v>
       </c>
       <c r="N30" s="32"/>
       <c r="O30" s="25"/>
@@ -3365,34 +3371,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>2.1496420917533215E-2</v>
+        <v>2.1496420917533201E-2</v>
       </c>
       <c r="C31" s="17">
-        <v>2.6063264166462371E-2</v>
+        <v>2.6063264166462399E-2</v>
       </c>
       <c r="D31" s="17">
-        <v>1.5663367100317308E-2</v>
+        <v>1.5663367100317301E-2</v>
       </c>
       <c r="E31" s="17">
-        <v>1.8008612821161181E-2</v>
+        <v>1.8008612821161198E-2</v>
       </c>
       <c r="F31" s="17">
-        <v>1.0995463859713008E-2</v>
+        <v>1.0995463859712999E-2</v>
       </c>
       <c r="G31" s="17">
-        <v>2.1496420917533215E-2</v>
+        <v>2.1496420917533201E-2</v>
       </c>
       <c r="H31" s="17">
-        <v>1.6473990275292637E-2</v>
+        <v>1.6473990275292599E-2</v>
       </c>
       <c r="I31" s="17">
-        <v>1.1336333998902305E-2</v>
+        <v>1.13363339989023E-2</v>
       </c>
       <c r="J31" s="17">
-        <v>1.0942378780820158E-2</v>
+        <v>1.0942378780820199E-2</v>
       </c>
       <c r="K31" s="45">
-        <v>1.4072123085208006E-2</v>
+        <v>1.4072123085207999E-2</v>
       </c>
       <c r="N31" s="32"/>
       <c r="O31" s="25"/>
@@ -3402,34 +3408,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="11">
-        <v>448.98678414096923</v>
+        <v>448.98678414096901</v>
       </c>
       <c r="C32" s="17">
         <v>697.61132075471698</v>
       </c>
       <c r="D32" s="17">
-        <v>901.20567375886526</v>
+        <v>901.20567375886503</v>
       </c>
       <c r="E32" s="17">
-        <v>1245.8504983388705</v>
+        <v>1245.85049833887</v>
       </c>
       <c r="F32" s="17">
-        <v>1382.094276094276</v>
+        <v>1382.0942760942801</v>
       </c>
       <c r="G32" s="17">
-        <v>448.98678414096923</v>
+        <v>448.98678414096901</v>
       </c>
       <c r="H32" s="17">
-        <v>658.18421052631572</v>
+        <v>658.18421052631595</v>
       </c>
       <c r="I32" s="17">
-        <v>919.07142857142844</v>
+        <v>919.07142857142799</v>
       </c>
       <c r="J32" s="17">
-        <v>1178.3035714285716</v>
+        <v>1178.30357142857</v>
       </c>
       <c r="K32" s="45">
-        <v>1237.6472602739725</v>
+        <v>1237.64726027397</v>
       </c>
       <c r="N32" s="32"/>
       <c r="O32" s="25"/>
@@ -3439,31 +3445,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="11">
-        <v>8.1393387746791623E-3</v>
+        <v>8.1393387746791605E-3</v>
       </c>
       <c r="C33" s="17">
-        <v>1.8175450445135726E-2</v>
+        <v>1.8175450445135698E-2</v>
       </c>
       <c r="D33" s="17">
-        <v>9.6943803252560034E-3</v>
+        <v>9.6943803252559999E-3</v>
       </c>
       <c r="E33" s="17">
-        <v>1.0554677835800613E-2</v>
+        <v>1.0554677835800601E-2</v>
       </c>
       <c r="F33" s="17">
-        <v>5.3454963299971988E-3</v>
+        <v>5.3454963299971996E-3</v>
       </c>
       <c r="G33" s="17">
-        <v>8.1393387746791623E-3</v>
+        <v>8.1393387746791605E-3</v>
       </c>
       <c r="H33" s="17">
-        <v>1.0859939881319051E-2</v>
+        <v>1.08599398813191E-2</v>
       </c>
       <c r="I33" s="17">
-        <v>6.2208743244831517E-3</v>
+        <v>6.2208743244831499E-3</v>
       </c>
       <c r="J33" s="17">
-        <v>4.9392316139206969E-3</v>
+        <v>4.9392316139207004E-3</v>
       </c>
       <c r="K33" s="45">
         <v>5.5067886549175302E-3</v>
@@ -3476,34 +3482,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="11">
-        <v>285.28238700840109</v>
+        <v>285.28238700840097</v>
       </c>
       <c r="C34" s="17">
         <v>517.67985083275096</v>
       </c>
       <c r="D34" s="17">
-        <v>718.00354314420827</v>
+        <v>718.00354314420804</v>
       </c>
       <c r="E34" s="17">
-        <v>1037.1038436692506</v>
+        <v>1037.10384366925</v>
       </c>
       <c r="F34" s="17">
-        <v>1136.1155312383089</v>
+        <v>1136.11553123831</v>
       </c>
       <c r="G34" s="17">
-        <v>285.28238700840109</v>
+        <v>285.28238700840097</v>
       </c>
       <c r="H34" s="17">
-        <v>476.90607688438774</v>
+        <v>476.90607688438803</v>
       </c>
       <c r="I34" s="17">
-        <v>739.81400190121383</v>
+        <v>739.81400190121406</v>
       </c>
       <c r="J34" s="17">
-        <v>928.25341666666645</v>
+        <v>928.25341666666702</v>
       </c>
       <c r="K34" s="45">
-        <v>1017.0458913622523</v>
+        <v>1017.04589136225</v>
       </c>
       <c r="N34" s="32"/>
       <c r="O34" s="25"/>
@@ -3513,34 +3519,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="11">
-        <v>0.13880321842403986</v>
+        <v>0.13880321842404</v>
       </c>
       <c r="C35" s="17">
-        <v>5.9748902753581967E-2</v>
+        <v>5.9748902753582002E-2</v>
       </c>
       <c r="D35" s="17">
-        <v>0.15713903948780894</v>
+        <v>0.157139039487809</v>
       </c>
       <c r="E35" s="17">
-        <v>8.9374656312324552E-2</v>
+        <v>8.9374656312324594E-2</v>
       </c>
       <c r="F35" s="17">
-        <v>0.15790629555026903</v>
+        <v>0.157906295550269</v>
       </c>
       <c r="G35" s="17">
-        <v>0.13880321842403986</v>
+        <v>0.13880321842404</v>
       </c>
       <c r="H35" s="17">
-        <v>0.13434712591049794</v>
+        <v>0.13434712591049799</v>
       </c>
       <c r="I35" s="17">
-        <v>0.1670984092830477</v>
+        <v>0.16709840928304801</v>
       </c>
       <c r="J35" s="17">
-        <v>0.16878692715968291</v>
+        <v>0.16878692715968299</v>
       </c>
       <c r="K35" s="45">
-        <v>0.12855087108031282</v>
+        <v>0.12855087108031299</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="25"/>
@@ -3553,31 +3559,31 @@
         <v>2081.5242290748902</v>
       </c>
       <c r="C36" s="17">
-        <v>2963.7396226415094</v>
+        <v>2963.7396226415099</v>
       </c>
       <c r="D36" s="17">
-        <v>2797.1312056737588</v>
+        <v>2797.1312056737602</v>
       </c>
       <c r="E36" s="17">
-        <v>2507.0332225913617</v>
+        <v>2507.0332225913598</v>
       </c>
       <c r="F36" s="17">
-        <v>2859.424242424242</v>
+        <v>2859.4242424242402</v>
       </c>
       <c r="G36" s="17">
         <v>2081.5242290748902</v>
       </c>
       <c r="H36" s="17">
-        <v>2544.9323308270673</v>
+        <v>2544.93233082707</v>
       </c>
       <c r="I36" s="17">
         <v>2353.25850340136</v>
       </c>
       <c r="J36" s="17">
-        <v>3714.6321428571423</v>
+        <v>3714.63214285714</v>
       </c>
       <c r="K36" s="45">
-        <v>2881.5924657534247</v>
+        <v>2881.5924657534201</v>
       </c>
       <c r="N36" s="32"/>
       <c r="O36" s="25"/>
@@ -3587,34 +3593,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="11">
-        <v>1.2478663398564627E-2</v>
+        <v>1.2478663398564601E-2</v>
       </c>
       <c r="C37" s="17">
-        <v>1.3742654396184224E-2</v>
+        <v>1.37426543961842E-2</v>
       </c>
       <c r="D37" s="17">
-        <v>3.0523590938458075E-2</v>
+        <v>3.0523590938458099E-2</v>
       </c>
       <c r="E37" s="17">
         <v>4.6534913276171E-2</v>
       </c>
       <c r="F37" s="17">
-        <v>4.1276670745914873E-2</v>
+        <v>4.1276670745914901E-2</v>
       </c>
       <c r="G37" s="17">
-        <v>1.2478663398564627E-2</v>
+        <v>1.2478663398564601E-2</v>
       </c>
       <c r="H37" s="17">
-        <v>2.1987148104295771E-2</v>
+        <v>2.1987148104295799E-2</v>
       </c>
       <c r="I37" s="17">
-        <v>2.7801880024269244E-2</v>
+        <v>2.7801880024269199E-2</v>
       </c>
       <c r="J37" s="17">
-        <v>3.435827475826763E-2</v>
+        <v>3.4358274758267603E-2</v>
       </c>
       <c r="K37" s="45">
-        <v>3.9844145714889839E-2</v>
+        <v>3.9844145714889798E-2</v>
       </c>
       <c r="N37" s="32"/>
       <c r="O37" s="25"/>
@@ -3623,35 +3629,35 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
-        <v>6.4011462579779583E-5</v>
-      </c>
-      <c r="C38" s="17">
-        <v>3.6956097835331243E-5</v>
-      </c>
-      <c r="D38" s="17">
-        <v>4.855678600498524E-5</v>
-      </c>
-      <c r="E38" s="17">
-        <v>4.3364824719098169E-5</v>
-      </c>
-      <c r="F38" s="17">
-        <v>3.7545169218528838E-5</v>
-      </c>
-      <c r="G38" s="17">
-        <v>6.4011462579779583E-5</v>
-      </c>
-      <c r="H38" s="17">
-        <v>5.277820962179845E-5</v>
-      </c>
-      <c r="I38" s="17">
-        <v>4.2274259071947931E-5</v>
-      </c>
-      <c r="J38" s="17">
-        <v>4.1280992988015684E-5</v>
-      </c>
-      <c r="K38" s="45">
-        <v>4.2141173297053738E-5</v>
+      <c r="B38" s="64">
+        <v>6.4011462579779597E-5</v>
+      </c>
+      <c r="C38" s="66">
+        <v>3.6956097835331203E-5</v>
+      </c>
+      <c r="D38" s="66">
+        <v>4.85567860049852E-5</v>
+      </c>
+      <c r="E38" s="66">
+        <v>4.3364824719098203E-5</v>
+      </c>
+      <c r="F38" s="66">
+        <v>3.7545169218528798E-5</v>
+      </c>
+      <c r="G38" s="66">
+        <v>6.4011462579779597E-5</v>
+      </c>
+      <c r="H38" s="66">
+        <v>5.2778209621798498E-5</v>
+      </c>
+      <c r="I38" s="66">
+        <v>4.2274259071947897E-5</v>
+      </c>
+      <c r="J38" s="66">
+        <v>4.1280992988015698E-5</v>
+      </c>
+      <c r="K38" s="68">
+        <v>4.2141173297053697E-5</v>
       </c>
       <c r="N38" s="32"/>
       <c r="O38" s="25"/>
@@ -3661,34 +3667,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="12">
-        <v>2.6107168322191895E-2</v>
+        <v>2.6107168322191902E-2</v>
       </c>
       <c r="C39" s="18">
-        <v>2.1007690141431504E-2</v>
+        <v>2.1007690141431501E-2</v>
       </c>
       <c r="D39" s="18">
-        <v>1.885922921471108E-2</v>
+        <v>1.8859229214711101E-2</v>
       </c>
       <c r="E39" s="18">
-        <v>1.9044995816839706E-2</v>
+        <v>1.9044995816839699E-2</v>
       </c>
       <c r="F39" s="18">
-        <v>1.9787450662712612E-2</v>
+        <v>1.9787450662712602E-2</v>
       </c>
       <c r="G39" s="18">
-        <v>2.6107168322191895E-2</v>
+        <v>2.6107168322191902E-2</v>
       </c>
       <c r="H39" s="18">
-        <v>2.280877770186901E-2</v>
+        <v>2.2808777701868999E-2</v>
       </c>
       <c r="I39" s="18">
-        <v>1.7786410225575325E-2</v>
+        <v>1.7786410225575301E-2</v>
       </c>
       <c r="J39" s="18">
-        <v>2.1033598301829919E-2</v>
+        <v>2.1033598301829898E-2</v>
       </c>
       <c r="K39" s="46">
-        <v>1.7349245390124269E-2</v>
+        <v>1.73492453901243E-2</v>
       </c>
       <c r="N39" s="33"/>
       <c r="O39" s="26"/>
@@ -3698,34 +3704,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="12">
-        <v>0.44980807258619065</v>
+        <v>0.44980807258619099</v>
       </c>
       <c r="C40" s="18">
-        <v>0.75915234764752193</v>
+        <v>0.75915234764752204</v>
       </c>
       <c r="D40" s="18">
-        <v>1.0181457267141054</v>
+        <v>1.0181457267141101</v>
       </c>
       <c r="E40" s="18">
-        <v>1.1788517606827118</v>
+        <v>1.17885176068271</v>
       </c>
       <c r="F40" s="18">
-        <v>1.2494933649098021</v>
+        <v>1.2494933649097999</v>
       </c>
       <c r="G40" s="18">
-        <v>0.44980807258619065</v>
+        <v>0.44980807258619099</v>
       </c>
       <c r="H40" s="18">
-        <v>0.63207423679294639</v>
+        <v>0.63207423679294605</v>
       </c>
       <c r="I40" s="18">
-        <v>1.0880492462236231</v>
+        <v>1.08804924622362</v>
       </c>
       <c r="J40" s="18">
-        <v>1.0889050261462003</v>
+        <v>1.0889050261462001</v>
       </c>
       <c r="K40" s="46">
-        <v>1.367279791579846</v>
+        <v>1.36727979157985</v>
       </c>
       <c r="N40" s="33"/>
       <c r="O40" s="26"/>
@@ -3735,34 +3741,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="12">
-        <v>7.715247099448716E-2</v>
+        <v>7.7152470994487202E-2</v>
       </c>
       <c r="C41" s="18">
-        <v>5.7309529524811983E-2</v>
+        <v>5.7309529524811997E-2</v>
       </c>
       <c r="D41" s="18">
-        <v>5.2181826046060337E-2</v>
+        <v>5.2181826046060302E-2</v>
       </c>
       <c r="E41" s="18">
-        <v>3.719545224239551E-2</v>
+        <v>3.7195452242395503E-2</v>
       </c>
       <c r="F41" s="18">
-        <v>3.407188565234081E-2</v>
+        <v>3.4071885652340803E-2</v>
       </c>
       <c r="G41" s="18">
-        <v>7.715247099448716E-2</v>
+        <v>7.7152470994487202E-2</v>
       </c>
       <c r="H41" s="18">
-        <v>5.4688366098087006E-2</v>
+        <v>5.4688366098086999E-2</v>
       </c>
       <c r="I41" s="18">
-        <v>5.5076765720340891E-2</v>
+        <v>5.5076765720340898E-2</v>
       </c>
       <c r="J41" s="18">
-        <v>3.6429486515070081E-2</v>
+        <v>3.6429486515070102E-2</v>
       </c>
       <c r="K41" s="46">
-        <v>4.3436534287230016E-2</v>
+        <v>4.3436534287230003E-2</v>
       </c>
       <c r="N41" s="33"/>
       <c r="O41" s="26"/>
@@ -3772,34 +3778,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="12">
-        <v>1927.0447371249106</v>
+        <v>1927.0447371249099</v>
       </c>
       <c r="C42" s="18">
-        <v>4756.7746779442805</v>
+        <v>4756.7746779442796</v>
       </c>
       <c r="D42" s="18">
         <v>7002.35647399136</v>
       </c>
       <c r="E42" s="18">
-        <v>9746.6421224264886</v>
+        <v>9746.6421224264905</v>
       </c>
       <c r="F42" s="18">
-        <v>10909.963578726121</v>
+        <v>10909.9635787261</v>
       </c>
       <c r="G42" s="18">
-        <v>1927.0447371249106</v>
+        <v>1927.0447371249099</v>
       </c>
       <c r="H42" s="18">
-        <v>3534.0485440209891</v>
+        <v>3534.04854402099</v>
       </c>
       <c r="I42" s="18">
-        <v>7224.9319109278395</v>
+        <v>7224.9319109278404</v>
       </c>
       <c r="J42" s="18">
-        <v>8835.4589645791784</v>
+        <v>8835.4589645791802</v>
       </c>
       <c r="K42" s="46">
-        <v>11249.669606239357</v>
+        <v>11249.6696062394</v>
       </c>
       <c r="N42" s="33"/>
       <c r="O42" s="26"/>
@@ -3809,34 +3815,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="12">
-        <v>11.91592410115161</v>
+        <v>11.9159241011516</v>
       </c>
       <c r="C43" s="18">
-        <v>16.242803117217935</v>
+        <v>16.2428031172179</v>
       </c>
       <c r="D43" s="18">
-        <v>18.710680866234416</v>
+        <v>18.710680866234402</v>
       </c>
       <c r="E43" s="18">
-        <v>24.514439803999828</v>
+        <v>24.514439803999799</v>
       </c>
       <c r="F43" s="18">
-        <v>28.169619763432625</v>
+        <v>28.1696197634326</v>
       </c>
       <c r="G43" s="18">
-        <v>11.91592410115161</v>
+        <v>11.9159241011516</v>
       </c>
       <c r="H43" s="18">
-        <v>15.202078954922255</v>
+        <v>15.2020789549223</v>
       </c>
       <c r="I43" s="18">
-        <v>16.809125183593174</v>
+        <v>16.809125183593199</v>
       </c>
       <c r="J43" s="18">
-        <v>28.226291528909755</v>
+        <v>28.226291528909801</v>
       </c>
       <c r="K43" s="46">
-        <v>22.949190266877661</v>
+        <v>22.9491902668777</v>
       </c>
       <c r="N43" s="33"/>
       <c r="O43" s="26"/>
@@ -3855,7 +3861,7 @@
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,15 +4094,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8176F4A9-4881-448D-A0E0-F9B6D997CC24}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="58"/>
-    <col min="3" max="3" width="14.5546875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="60" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4752,7 +4758,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4791,15 +4797,11 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>153.59285217346491</v>
-      </c>
-      <c r="C2" s="14">
-        <v>153.59285217346491</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="8"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>55</v>
@@ -4812,15 +4814,11 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>0.33144529510144971</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.33144529510144971</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
@@ -4829,15 +4827,11 @@
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>-9.1666779024141665E-2</v>
-      </c>
-      <c r="C4" s="14">
-        <v>-9.1666779024141665E-2</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="B4" s="8"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
@@ -4846,15 +4840,11 @@
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1.3416292925342581E-3</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1.3416292925342581E-3</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
@@ -4863,15 +4853,11 @@
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>82.941612976187955</v>
-      </c>
-      <c r="C6" s="15">
-        <v>82.941612976187955</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
@@ -4880,15 +4866,11 @@
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>0.54137640003339027</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.54137640003339027</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
@@ -4897,15 +4879,11 @@
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>0.22773735206397272</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.22773735206397272</v>
-      </c>
-      <c r="D8" s="51">
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
@@ -4914,15 +4892,11 @@
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>4.8940948857609671E-3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4.8940948857609671E-3</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
@@ -4931,15 +4905,11 @@
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>9.8703730932133009</v>
-      </c>
-      <c r="C10" s="15">
-        <v>9.8703730932133009</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
@@ -4948,15 +4918,11 @@
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>2.2003700187942423E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2.2003700187942423E-2</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
@@ -4965,15 +4931,11 @@
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>7.0766290081309338</v>
-      </c>
-      <c r="C12" s="15">
-        <v>7.0766290081309338</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="B12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
@@ -4982,15 +4944,11 @@
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <v>0.97141725312401339</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.97141725312401339</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
@@ -4999,15 +4957,11 @@
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
-        <v>1.1238327243199353</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1.1238327243199353</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
@@ -5016,15 +4970,11 @@
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <v>3.0895004903262566E-2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>3.0895004903262566E-2</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
@@ -5033,15 +4983,11 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
-        <v>0.9272018401782024</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.9272018401782024</v>
-      </c>
-      <c r="D16" s="51">
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
@@ -5050,15 +4996,11 @@
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>0.96173369777430695</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.96173369777430695</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
@@ -5067,15 +5009,11 @@
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
-        <v>2.8675632085525229E-2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2.8675632085525229E-2</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
@@ -5084,15 +5022,11 @@
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
-        <v>462.0004060089322</v>
-      </c>
-      <c r="C19" s="16">
-        <v>462.0004060089322</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
@@ -5101,15 +5035,11 @@
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>523.05399918798207</v>
-      </c>
-      <c r="C20" s="16">
-        <v>523.05399918798207</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
@@ -5118,15 +5048,11 @@
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
-        <v>4.0343546780203618E-2</v>
-      </c>
-      <c r="C21" s="16">
-        <v>4.0343546780203618E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
@@ -5135,15 +5061,11 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
-        <v>9.6089125820768905E-5</v>
-      </c>
-      <c r="C22" s="16">
-        <v>9.6089125820768905E-5</v>
-      </c>
-      <c r="D22" s="51">
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
@@ -5152,15 +5074,11 @@
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>0.64914337908437969</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.64914337908437969</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="11"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -5169,15 +5087,11 @@
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>4.3876651982378858</v>
-      </c>
-      <c r="C24" s="17">
-        <v>4.3876651982378858</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="B24" s="11"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
@@ -5186,15 +5100,11 @@
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
-        <v>3.1768518698208785E-2</v>
-      </c>
-      <c r="C25" s="17">
-        <v>3.1768518698208785E-2</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -5203,15 +5113,11 @@
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
-        <v>2.7720425194118901E-2</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2.7720425194118901E-2</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="B26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
@@ -5220,15 +5126,11 @@
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
-        <v>447.30635065638103</v>
-      </c>
-      <c r="C27" s="16">
-        <v>447.30635065638103</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="B27" s="10"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
@@ -5237,15 +5139,11 @@
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
-        <v>3.365338233600812E-2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>3.365338233600812E-2</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="B28" s="10"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
@@ -5254,15 +5152,11 @@
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
-        <v>0.40584913349764207</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.40584913349764207</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="11"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -5271,15 +5165,11 @@
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>0.57614213197969544</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.57614213197969544</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="B30" s="11"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -5288,15 +5178,11 @@
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>2.1496420917533215E-2</v>
-      </c>
-      <c r="C31" s="17">
-        <v>2.1496420917533215E-2</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="B31" s="11"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
@@ -5305,15 +5191,11 @@
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>448.98678414096923</v>
-      </c>
-      <c r="C32" s="17">
-        <v>448.98678414096923</v>
-      </c>
-      <c r="D32" s="51">
+      <c r="B32" s="11"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
@@ -5322,15 +5204,11 @@
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
-        <v>8.1393387746791623E-3</v>
-      </c>
-      <c r="C33" s="17">
-        <v>8.1393387746791623E-3</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="11"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
@@ -5339,15 +5217,11 @@
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>285.28238700840109</v>
-      </c>
-      <c r="C34" s="17">
-        <v>285.28238700840109</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="B34" s="11"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
@@ -5356,15 +5230,11 @@
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
-        <v>0.13880321842403986</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.13880321842403986</v>
-      </c>
-      <c r="D35" s="51">
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
@@ -5373,15 +5243,11 @@
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
-        <v>2081.5242290748902</v>
-      </c>
-      <c r="C36" s="17">
-        <v>2081.5242290748902</v>
-      </c>
-      <c r="D36" s="51">
+      <c r="B36" s="11"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
@@ -5390,15 +5256,11 @@
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
-        <v>1.2478663398564627E-2</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1.2478663398564627E-2</v>
-      </c>
-      <c r="D37" s="51">
+      <c r="B37" s="11"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
@@ -5407,15 +5269,11 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
-        <v>6.4011462579779583E-5</v>
-      </c>
-      <c r="C38" s="17">
-        <v>6.4011462579779583E-5</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="B38" s="11"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
@@ -5424,15 +5282,11 @@
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12">
-        <v>2.6107168322191895E-2</v>
-      </c>
-      <c r="C39" s="18">
-        <v>2.6107168322191895E-2</v>
-      </c>
-      <c r="D39" s="51">
+      <c r="B39" s="12"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
@@ -5441,15 +5295,11 @@
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="12">
-        <v>0.44980807258619065</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.44980807258619065</v>
-      </c>
-      <c r="D40" s="51">
+      <c r="B40" s="12"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
@@ -5458,15 +5308,11 @@
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="12">
-        <v>7.715247099448716E-2</v>
-      </c>
-      <c r="C41" s="18">
-        <v>7.715247099448716E-2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="B41" s="12"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
@@ -5475,15 +5321,11 @@
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="12">
-        <v>1927.0447371249106</v>
-      </c>
-      <c r="C42" s="18">
-        <v>1927.0447371249106</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="B42" s="12"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
@@ -5492,15 +5334,11 @@
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
-        <v>11.91592410115161</v>
-      </c>
-      <c r="C43" s="18">
-        <v>11.91592410115161</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="B43" s="12"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="51" t="e">
         <f>1-Tabelle24[[#This Row],[Simulated 0]]/Tabelle24[[#This Row],[Measured 0]]</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="26"/>
@@ -5519,7 +5357,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5557,15 +5395,11 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>136.90159211131188</v>
-      </c>
-      <c r="C2" s="14">
-        <v>145.98244871928367</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-6.6331271009531623E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>55</v>
@@ -5578,15 +5412,11 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.27996978862558491</v>
-      </c>
-      <c r="C3" s="14">
-        <v>6.6106260809492869E-3</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.97638807346534828</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
@@ -5595,15 +5425,11 @@
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>-0.20892272327322337</v>
-      </c>
-      <c r="C4" s="14">
-        <v>-0.20281035307862894</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>2.9256607892291564E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
@@ -5612,15 +5438,11 @@
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>8.930668578932511E-4</v>
-      </c>
-      <c r="C5" s="15">
-        <v>9.6692794455253387E-4</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-8.2704991240545533E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
@@ -5629,15 +5451,11 @@
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>149.93179673009072</v>
-      </c>
-      <c r="C6" s="15">
-        <v>118.72880882422849</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.20811454665639917</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
@@ -5646,15 +5464,11 @@
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0.52299762846486986</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.56821503653618388</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-8.6458151261676885E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
@@ -5663,15 +5477,11 @@
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.18939635333989743</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.19719491517534699</v>
-      </c>
-      <c r="D8" s="51">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-4.1175881678429116E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
@@ -5680,15 +5490,11 @@
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>6.2584260113764563E-3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6.1274064192241885E-3</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>2.0934911096512576E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
@@ -5697,15 +5503,11 @@
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>10.469654859633128</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10.305930638769215</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>1.5637976901718975E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
@@ -5714,15 +5516,11 @@
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>3.8172816704620076E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3.3558620130145773E-2</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.12087650251692961</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
@@ -5731,15 +5529,11 @@
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>9.5635661441961535</v>
-      </c>
-      <c r="C12" s="15">
-        <v>8.659625741265188</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>9.4519177187846415E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
@@ -5748,15 +5542,11 @@
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
-        <v>0.97954804532957851</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.97499436556231645</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>4.6487559124575029E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
@@ -5765,15 +5555,11 @@
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
-        <v>1.0844900422450214</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1.1018255578093301</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-1.5984946739042494E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
@@ -5782,15 +5568,11 @@
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
-        <v>2.3730596623562923E-2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2.5531724055643096E-2</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-7.5898952759231086E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
@@ -5799,15 +5581,11 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
-        <v>0.94712798321999692</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.93565511481223873</v>
-      </c>
-      <c r="D16" s="51">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>1.2113324293041461E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
@@ -5816,15 +5594,11 @@
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
-        <v>0.9729888432178504</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.96742543171114637</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>5.7178574507645852E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
@@ -5833,15 +5607,11 @@
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.4973152185589834E-2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2.3895076149396472E-2</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>4.3169401611040548E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
@@ -5850,15 +5620,11 @@
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
-        <v>758.60732247032797</v>
-      </c>
-      <c r="C19" s="16">
-        <v>710.65152129817443</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>6.3215579064001548E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
@@ -5867,15 +5633,11 @@
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
-        <v>837.89800844900424</v>
-      </c>
-      <c r="C20" s="16">
-        <v>796.84787018255577</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>4.8991807896088146E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
@@ -5884,15 +5646,11 @@
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
-        <v>6.3954870286779986E-2</v>
-      </c>
-      <c r="C21" s="16">
-        <v>6.9427941124326376E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-8.5577076663662988E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
@@ -5901,15 +5659,11 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
-        <v>8.8214424609940178E-5</v>
-      </c>
-      <c r="C22" s="16">
-        <v>9.6402814407337402E-5</v>
-      </c>
-      <c r="D22" s="51">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-9.282370580099597E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
@@ -5918,15 +5672,11 @@
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>0.76818835895644078</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.77174025625287701</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-4.623732259183555E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -5935,15 +5685,11 @@
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>3.2566037735849056</v>
-      </c>
-      <c r="C24" s="17">
-        <v>3.1203007518796988</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>4.1854346178307966E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
@@ -5952,15 +5698,11 @@
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>2.2997508009967943E-2</v>
-      </c>
-      <c r="C25" s="17">
-        <v>2.6711515631183218E-2</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-0.16149608990702347</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -5969,15 +5711,11 @@
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
-        <v>2.4535061995345192E-2</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2.2308500978157467E-2</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>9.0750168783357843E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
@@ -5986,15 +5724,11 @@
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
-        <v>739.2609691767808</v>
-      </c>
-      <c r="C27" s="16">
-        <v>689.8101194500789</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>6.6892277272218137E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
@@ -6003,15 +5737,11 @@
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
-        <v>2.6738302267191736E-2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>3.0242683259677765E-2</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-0.13106221021317244</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
@@ -6020,15 +5750,11 @@
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>0.54762548949804191</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.55268811125558215</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-9.2446788081042008E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -6037,15 +5763,11 @@
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>0.67430025445292618</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-6.3342318059300684E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -6054,15 +5776,11 @@
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>2.6063264166462371E-2</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1.6473990275292637E-2</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.36792298270563506</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
@@ -6071,15 +5789,11 @@
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
-        <v>697.61132075471698</v>
-      </c>
-      <c r="C32" s="17">
-        <v>658.18421052631572</v>
-      </c>
-      <c r="D32" s="51">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>5.6517302766455502E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
@@ -6088,15 +5802,11 @@
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>1.8175450445135726E-2</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1.0859939881319051E-2</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.40249404469502525</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
@@ -6105,15 +5815,11 @@
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>517.67985083275096</v>
-      </c>
-      <c r="C34" s="17">
-        <v>476.90607688438774</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>7.8762528390420528E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
@@ -6122,15 +5828,11 @@
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>5.9748902753581967E-2</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.13434712591049794</v>
-      </c>
-      <c r="D35" s="51">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-1.2485287548220922</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
@@ -6139,15 +5841,11 @@
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
-        <v>2963.7396226415094</v>
-      </c>
-      <c r="C36" s="17">
-        <v>2544.9323308270673</v>
-      </c>
-      <c r="D36" s="51">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.14131042032672536</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
@@ -6156,15 +5854,11 @@
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
-        <v>1.3742654396184224E-2</v>
-      </c>
-      <c r="C37" s="17">
-        <v>2.1987148104295771E-2</v>
-      </c>
-      <c r="D37" s="51">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-0.59992003512805403</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
@@ -6173,15 +5867,11 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
-        <v>3.6956097835331243E-5</v>
-      </c>
-      <c r="C38" s="17">
-        <v>5.277820962179845E-5</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-0.42813264151879005</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
@@ -6190,15 +5880,11 @@
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="18">
-        <v>2.1007690141431504E-2</v>
-      </c>
-      <c r="C39" s="18">
-        <v>2.280877770186901E-2</v>
-      </c>
-      <c r="D39" s="51">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>-8.5734678506390827E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
@@ -6207,15 +5893,11 @@
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
-        <v>0.75915234764752193</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.63207423679294639</v>
-      </c>
-      <c r="D40" s="51">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.16739474131690169</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
@@ -6224,15 +5906,11 @@
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="18">
-        <v>5.7309529524811983E-2</v>
-      </c>
-      <c r="C41" s="18">
-        <v>5.4688366098087006E-2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>4.5736955938368906E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
@@ -6241,15 +5919,11 @@
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="18">
-        <v>4756.7746779442805</v>
-      </c>
-      <c r="C42" s="18">
-        <v>3534.0485440209891</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>0.25704941198764386</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
@@ -6258,15 +5932,11 @@
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="18">
-        <v>16.242803117217935</v>
-      </c>
-      <c r="C43" s="18">
-        <v>15.202078954922255</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="51" t="e">
         <f>1-Tabelle245[[#This Row],[Simulated 1]]/Tabelle245[[#This Row],[Measured 1]]</f>
-        <v>6.4072940784000276E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="26"/>
@@ -6285,7 +5955,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,15 +5993,11 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>146.34846454169335</v>
-      </c>
-      <c r="C2" s="14">
-        <v>115.57209886505619</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.21029510472157531</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>55</v>
@@ -6344,15 +6010,11 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.47079188485947954</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-6.9474207436665034E-2</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>1.1475688296058915</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
@@ -6361,15 +6023,11 @@
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>8.8665888006265181E-2</v>
-      </c>
-      <c r="C4" s="14">
-        <v>-0.21504692652973167</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>3.4253625759044599</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
@@ -6378,15 +6036,11 @@
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>7.1691358511030711E-4</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6.9115405879994541E-4</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>3.5931145462110625E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
@@ -6395,15 +6049,11 @@
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>208.52353107172246</v>
-      </c>
-      <c r="C6" s="15">
-        <v>227.66368508762017</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-9.1788940641497119E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
@@ -6412,15 +6062,11 @@
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0.51915797644990469</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.44662995261773647</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.13970318693382666</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
@@ -6429,15 +6075,11 @@
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.16905292863165622</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.1582498589921415</v>
-      </c>
-      <c r="D8" s="51">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>6.3903475242674812E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
@@ -6446,15 +6088,11 @@
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>6.5837403859476829E-3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6.8086565533089713E-3</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-3.4162368832366008E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
@@ -6463,15 +6101,11 @@
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>10.745422281943698</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10.771075636707334</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-2.3873752087661959E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
@@ -6480,15 +6114,11 @@
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>5.273596762483506E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4.9889274404494581E-2</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>5.3980107857163562E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
@@ -6497,15 +6127,11 @@
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>11.34083584267281</v>
-      </c>
-      <c r="C12" s="15">
-        <v>12.053370069302954</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-6.2829075080079289E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
@@ -6514,15 +6140,11 @@
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
-        <v>0.98198845656727707</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.9828355876969781</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-8.6266913224442021E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
@@ -6531,15 +6153,11 @@
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
-        <v>1.0756117127958282</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1.0731217356368021</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>2.3149405397919764E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
@@ -6548,15 +6166,11 @@
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
-        <v>2.0876263405163822E-2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2.1146883168222216E-2</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-1.2963036430717612E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
@@ -6565,15 +6179,11 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
-        <v>0.95336858969253468</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.95558722743268509</v>
-      </c>
-      <c r="D16" s="51">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-2.3271563214244395E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
@@ -6582,15 +6192,11 @@
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
-        <v>0.97592483852025846</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.97684458398744156</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-9.4243473562749536E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
@@ -6599,15 +6205,11 @@
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.5868123360370608E-2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2.3938149136099835E-2</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>7.4608203980790155E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
@@ -6616,15 +6218,11 @@
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
-        <v>937.05034095467306</v>
-      </c>
-      <c r="C19" s="16">
-        <v>943.634391321816</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-7.0263571543391912E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
@@ -6633,15 +6231,11 @@
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
-        <v>1022.1073004412353</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1016.1976697468858</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>5.7818104731258702E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
@@ -6650,15 +6244,11 @@
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
-        <v>7.0686796868208807E-2</v>
-      </c>
-      <c r="C21" s="16">
-        <v>7.4835064552882205E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-5.8685184057888362E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
@@ -6667,15 +6257,11 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
-        <v>7.5570456903988327E-5</v>
-      </c>
-      <c r="C22" s="16">
-        <v>7.7265033667444036E-5</v>
-      </c>
-      <c r="D22" s="51">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-2.2423799363932018E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
@@ -6684,15 +6270,11 @@
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>0.80789598108747007</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.83382224998843102</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-3.2091097750062803E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -6701,15 +6283,11 @@
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>2.7340425531914891</v>
-      </c>
-      <c r="C24" s="17">
-        <v>2.4897959183673475</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>8.9335345032954594E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
@@ -6718,15 +6296,11 @@
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>2.2056234595845266E-2</v>
-      </c>
-      <c r="C25" s="17">
-        <v>2.2166689805173775E-2</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-5.0078905739112667E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -6735,15 +6309,11 @@
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
-        <v>2.4451001232411597E-2</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2.2244505520195215E-2</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>9.0241527994833648E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
@@ -6752,15 +6322,11 @@
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
-        <v>917.02044613807539</v>
-      </c>
-      <c r="C27" s="16">
-        <v>926.64887728226381</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-1.0499690802683315E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
@@ -6769,15 +6335,11 @@
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
-        <v>3.2464299014927367E-2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>3.1632017552028872E-2</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>2.5636822237122825E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
@@ -6786,15 +6348,11 @@
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>0.60794225642573263</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.65072423527234069</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-7.0371780205139345E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -6803,15 +6361,11 @@
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>0.71755725190839681</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-4.5212765957447054E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -6820,15 +6374,11 @@
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>1.5663367100317308E-2</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1.1336333998902305E-2</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.27625178377689596</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
@@ -6837,15 +6387,11 @@
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
-        <v>901.20567375886526</v>
-      </c>
-      <c r="C32" s="17">
-        <v>919.07142857142844</v>
-      </c>
-      <c r="D32" s="51">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-1.982428132975067E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
@@ -6854,15 +6400,11 @@
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>9.6943803252560034E-3</v>
-      </c>
-      <c r="C33" s="17">
-        <v>6.2208743244831517E-3</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.35830098306785019</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
@@ -6871,15 +6413,11 @@
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>718.00354314420827</v>
-      </c>
-      <c r="C34" s="17">
-        <v>739.81400190121383</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-3.0376533605245726E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
@@ -6888,15 +6426,11 @@
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>0.15713903948780894</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.1670984092830477</v>
-      </c>
-      <c r="D35" s="51">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-6.3379347536430819E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
@@ -6905,15 +6439,11 @@
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
-        <v>2797.1312056737588</v>
-      </c>
-      <c r="C36" s="17">
-        <v>2353.25850340136</v>
-      </c>
-      <c r="D36" s="51">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.15868855253269432</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
@@ -6922,15 +6452,11 @@
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
-        <v>3.0523590938458075E-2</v>
-      </c>
-      <c r="C37" s="17">
-        <v>2.7801880024269244E-2</v>
-      </c>
-      <c r="D37" s="51">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>8.9167454762330123E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
@@ -6939,15 +6465,11 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
-        <v>4.855678600498524E-5</v>
-      </c>
-      <c r="C38" s="17">
-        <v>4.2274259071947931E-5</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.1293851477812451</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
@@ -6956,15 +6478,11 @@
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="18">
-        <v>1.885922921471108E-2</v>
-      </c>
-      <c r="C39" s="18">
-        <v>1.7786410225575325E-2</v>
-      </c>
-      <c r="D39" s="51">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>5.6885622255383961E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
@@ -6973,15 +6491,11 @@
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
-        <v>1.0181457267141054</v>
-      </c>
-      <c r="C40" s="18">
-        <v>1.0880492462236231</v>
-      </c>
-      <c r="D40" s="51">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-6.8657676082499064E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
@@ -6990,15 +6504,11 @@
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="18">
-        <v>5.2181826046060337E-2</v>
-      </c>
-      <c r="C41" s="18">
-        <v>5.5076765720340891E-2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-5.5477929647866686E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
@@ -7007,15 +6517,11 @@
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="18">
-        <v>7002.35647399136</v>
-      </c>
-      <c r="C42" s="18">
-        <v>7224.9319109278395</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>-3.1785790649645485E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
@@ -7024,15 +6530,11 @@
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="18">
-        <v>18.710680866234416</v>
-      </c>
-      <c r="C43" s="18">
-        <v>16.809125183593174</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="51" t="e">
         <f>1-Tabelle2456[[#This Row],[Simulated 2]]/Tabelle2456[[#This Row],[Measured 2]]</f>
-        <v>0.10162942205234327</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="26"/>
@@ -7051,7 +6553,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7089,15 +6591,11 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>163.77116842511495</v>
-      </c>
-      <c r="C2" s="14">
-        <v>173.03300118485714</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-5.6553499915812155E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>55</v>
@@ -7110,15 +6608,11 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.17173835249485706</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.54236740988396359</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-2.1581030212817813</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
@@ -7127,15 +6621,11 @@
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>-0.54199981745881098</v>
-      </c>
-      <c r="C4" s="14">
-        <v>-0.20889228226476808</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.6145897553173203</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
@@ -7144,15 +6634,11 @@
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>5.8765619477489845E-4</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6.1995798669165912E-4</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-5.4967159716803327E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
@@ -7161,15 +6647,11 @@
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>267.45521789112877</v>
-      </c>
-      <c r="C6" s="15">
-        <v>227.38796245414574</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.14980921199784913</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
@@ -7178,15 +6660,11 @@
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0.52008772204255982</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.62268236033051094</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.19726410361126656</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
@@ -7195,15 +6673,11 @@
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.1508828872539664</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.16902538127147404</v>
-      </c>
-      <c r="D8" s="51">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.1202422246001309</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
@@ -7212,15 +6686,11 @@
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>7.4931934084728358E-3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>7.5088770920108605E-3</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-2.093057349926486E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
@@ -7229,15 +6699,11 @@
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>11.001190150491194</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10.960637972279798</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>3.6861628293539672E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
@@ -7246,15 +6712,11 @@
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>6.7716734214749316E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>7.2963583457108599E-2</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-7.748231368807601E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
@@ -7263,15 +6725,11 @@
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>12.986173104841159</v>
-      </c>
-      <c r="C12" s="15">
-        <v>11.720139921723119</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>9.7490859924396878E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
@@ -7280,15 +6738,11 @@
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
-        <v>0.98519410439940269</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.98143503656144104</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>3.8155606303117429E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
@@ -7297,15 +6751,11 @@
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
-        <v>1.0610074252458361</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1.076043338683788</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-1.4171355525120832E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
@@ -7314,15 +6764,11 @@
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
-        <v>1.8758823145393112E-2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1.8089910184500506E-2</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>3.5658578137236718E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
@@ -7331,15 +6777,11 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
-        <v>0.9614243716615628</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.95184067346165835</v>
-      </c>
-      <c r="D16" s="51">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>9.9682288928681917E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
@@ -7348,15 +6790,11 @@
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
-        <v>0.98032657879205176</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.97553337247993732</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>4.8893974883559288E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
@@ -7365,15 +6803,11 @@
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.6052570523685013E-2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2.3752899511891946E-2</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>8.8270407317480704E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
@@ -7382,15 +6816,11 @@
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
-        <v>1224.8697571743928</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1234.0503611556983</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-7.4951674882428598E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
@@ -7399,15 +6829,11 @@
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
-        <v>1297.5490668272125</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1345.622993579454</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-3.7049794864245644E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
@@ -7416,15 +6842,11 @@
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
-        <v>8.9724983063332098E-2</v>
-      </c>
-      <c r="C21" s="16">
-        <v>7.7327080722342387E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.13817670305090712</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
@@ -7433,15 +6855,11 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
-        <v>6.6007645145206619E-5</v>
-      </c>
-      <c r="C22" s="16">
-        <v>6.1494540170709517E-5</v>
-      </c>
-      <c r="D22" s="51">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>6.8372458441275485E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
@@ -7450,15 +6868,11 @@
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>0.82139996308600938</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.80587896825396788</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>1.8895782237107639E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -7467,15 +6881,11 @@
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>2.0697674418604648</v>
-      </c>
-      <c r="C24" s="17">
-        <v>2.7321428571428568</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.320024077046549</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
@@ -7484,15 +6894,11 @@
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>1.9061599761592031E-2</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1.8954081632653073E-2</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>5.6405616676308279E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -7501,15 +6907,11 @@
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
-        <v>2.5381903099331325E-2</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2.2291326792552465E-2</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.12176298580464917</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
@@ -7518,15 +6920,11 @@
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
-        <v>1206.7224507770868</v>
-      </c>
-      <c r="C27" s="16">
-        <v>1206.1629993757801</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>4.6361232522551532E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
@@ -7535,15 +6933,11 @@
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
-        <v>2.9636080857039691E-2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>3.0526602552617133E-2</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-3.004856478402762E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
@@ -7552,15 +6946,11 @@
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>0.62892241807485538</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.6068112244897953</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>3.5157267334726128E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -7569,15 +6959,11 @@
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>0.76982097186700771</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.7124681933842244</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>7.4501449789927787E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -7586,15 +6972,11 @@
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>1.8008612821161181E-2</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1.0942378780820158E-2</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.39238080747884041</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
@@ -7603,15 +6985,11 @@
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
-        <v>1245.8504983388705</v>
-      </c>
-      <c r="C32" s="17">
-        <v>1178.3035714285716</v>
-      </c>
-      <c r="D32" s="51">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>5.4217522086607683E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
@@ -7620,15 +6998,11 @@
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>1.0554677835800613E-2</v>
-      </c>
-      <c r="C33" s="17">
-        <v>4.9392316139206969E-3</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.53203388196584989</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
@@ -7637,15 +7011,11 @@
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>1037.1038436692506</v>
-      </c>
-      <c r="C34" s="17">
-        <v>928.25341666666645</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.10495615040580097</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
@@ -7654,15 +7024,11 @@
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>8.9374656312324552E-2</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.16878692715968291</v>
-      </c>
-      <c r="D35" s="51">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.88853232139822613</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
@@ -7671,15 +7037,11 @@
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
-        <v>2507.0332225913617</v>
-      </c>
-      <c r="C36" s="17">
-        <v>3714.6321428571423</v>
-      </c>
-      <c r="D36" s="51">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.48168445052258302</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
@@ -7688,15 +7050,11 @@
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
-        <v>4.6534913276171E-2</v>
-      </c>
-      <c r="C37" s="17">
-        <v>3.435827475826763E-2</v>
-      </c>
-      <c r="D37" s="51">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>0.26166672849777561</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
@@ -7705,15 +7063,11 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
-        <v>4.3364824719098169E-5</v>
-      </c>
-      <c r="C38" s="17">
-        <v>4.1280992988015684E-5</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>4.8053502915803348E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
@@ -7722,15 +7076,11 @@
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="18">
-        <v>1.9044995816839706E-2</v>
-      </c>
-      <c r="C39" s="18">
-        <v>2.1033598301829919E-2</v>
-      </c>
-      <c r="D39" s="51">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.10441601059486083</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
@@ -7739,15 +7089,11 @@
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
-        <v>1.1788517606827118</v>
-      </c>
-      <c r="C40" s="18">
-        <v>1.0889050261462003</v>
-      </c>
-      <c r="D40" s="51">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>7.6300292824282079E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
@@ -7756,15 +7102,11 @@
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="18">
-        <v>3.719545224239551E-2</v>
-      </c>
-      <c r="C41" s="18">
-        <v>3.6429486515070081E-2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>2.0592994066419235E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
@@ -7773,15 +7115,11 @@
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="18">
-        <v>9746.6421224264886</v>
-      </c>
-      <c r="C42" s="18">
-        <v>8835.4589645791784</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>9.3486879522407751E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
@@ -7790,15 +7128,11 @@
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="18">
-        <v>24.514439803999828</v>
-      </c>
-      <c r="C43" s="18">
-        <v>28.226291528909755</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="51" t="e">
         <f>1-Tabelle24567[[#This Row],[Simulated 3]]/Tabelle24567[[#This Row],[Measured 3]]</f>
-        <v>-0.15141491115388628</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="26"/>
@@ -7817,7 +7151,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7856,15 +7190,11 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>124.91556726532504</v>
-      </c>
-      <c r="C2" s="42">
-        <v>142.45439400249899</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="14"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.14040545242788571</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>55</v>
@@ -7877,15 +7207,11 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>4.9073296165689249E-2</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0.42992551916623173</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="14"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-7.7608853033765488</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
@@ -7894,15 +7220,11 @@
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>-0.19427810115274191</v>
-      </c>
-      <c r="C4" s="42">
-        <v>-8.4661537281955024E-2</v>
-      </c>
-      <c r="D4" s="51">
+      <c r="B4" s="14"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.56422501157042948</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
@@ -7911,15 +7233,11 @@
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>5.4084543882104534E-4</v>
-      </c>
-      <c r="C5" s="43">
-        <v>5.4590766907031021E-4</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="15"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-9.35984642913823E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
@@ -7928,15 +7246,11 @@
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>280.79590456284541</v>
-      </c>
-      <c r="C6" s="43">
-        <v>309.26353319089969</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="B6" s="15"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.10138192247630484</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
@@ -7945,15 +7259,11 @@
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0.56252045929133399</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0.47693986728458243</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="15"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.15213774111357015</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
@@ -7962,15 +7272,11 @@
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.1536775487827052</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0.15232091218076918</v>
-      </c>
-      <c r="D8" s="51">
+      <c r="B8" s="15"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>8.8278126029603943E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
@@ -7979,15 +7285,11 @@
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>7.8370834819446109E-3</v>
-      </c>
-      <c r="C9" s="43">
-        <v>7.456912129170077E-3</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="15"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>4.8509289667564182E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
@@ -7996,15 +7298,11 @@
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>11.135875930693926</v>
-      </c>
-      <c r="C10" s="43">
-        <v>11.109814244131959</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="15"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>2.3403355716394847E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
@@ -8013,15 +7311,11 @@
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>7.7626340346152886E-2</v>
-      </c>
-      <c r="C11" s="43">
-        <v>7.2253010922647562E-2</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="15"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>6.9220439860290583E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
@@ -8030,15 +7324,11 @@
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>13.125394896091274</v>
-      </c>
-      <c r="C12" s="43">
-        <v>13.753945413248813</v>
-      </c>
-      <c r="D12" s="51">
+      <c r="B12" s="15"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-4.7888122386681164E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
@@ -8047,15 +7337,11 @@
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
-        <v>0.98216070357785334</v>
-      </c>
-      <c r="C13" s="44">
-        <v>0.98403710385069376</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="B13" s="16"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-1.9104819262316663E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
@@ -8064,15 +7350,11 @@
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
-        <v>1.0713571856885868</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1.0647424333533773</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="16"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>6.1741802113906008E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
@@ -8081,15 +7363,11 @@
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
-        <v>1.7259322599524438E-2</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1.7902403929655454E-2</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="B15" s="16"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-3.7259940326321628E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
@@ -8098,15 +7376,11 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
-        <v>0.953560064640808</v>
-      </c>
-      <c r="C16" s="44">
-        <v>0.95840092541133082</v>
-      </c>
-      <c r="D16" s="51">
+      <c r="B16" s="16"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-5.0766186106443456E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
@@ -8115,15 +7389,11 @@
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
-        <v>0.97676688793440047</v>
-      </c>
-      <c r="C17" s="44">
-        <v>0.97900313971742581</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="16"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-2.2894426609345597E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
@@ -8132,15 +7402,11 @@
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.2388815867492733E-2</v>
-      </c>
-      <c r="C18" s="44">
-        <v>2.5390833313455673E-2</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="B18" s="16"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.13408558379015001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
@@ -8149,15 +7415,11 @@
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
-        <v>1357.9844093543875</v>
-      </c>
-      <c r="C19" s="44">
-        <v>1232.375826819002</v>
-      </c>
-      <c r="D19" s="51">
+      <c r="B19" s="16"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>9.2496336239310972E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
@@ -8166,15 +7428,11 @@
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
-        <v>1443.592044773136</v>
-      </c>
-      <c r="C20" s="44">
-        <v>1311.7797153738225</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="B20" s="16"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>9.1308572859327586E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
@@ -8183,15 +7441,11 @@
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
-        <v>0.1102674777581326</v>
-      </c>
-      <c r="C21" s="44">
-        <v>8.014177289262843E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="16"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.27320571285382733</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
@@ -8200,15 +7454,11 @@
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
-        <v>6.5476394988886116E-5</v>
-      </c>
-      <c r="C22" s="44">
-        <v>6.1315672747789868E-5</v>
-      </c>
-      <c r="D22" s="51">
+      <c r="B22" s="16"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>6.354537756396772E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
@@ -8217,15 +7467,11 @@
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>0.81539375233819655</v>
-      </c>
-      <c r="C23" s="45">
-        <v>0.80480117960426201</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="17"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>1.2990745518419278E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -8234,15 +7480,11 @@
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>2.2491582491582491</v>
-      </c>
-      <c r="C24" s="45">
-        <v>2.3013698630136989</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="B24" s="17"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-2.321384628004286E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
@@ -8251,15 +7493,11 @@
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>1.7900667732317552E-2</v>
-      </c>
-      <c r="C25" s="45">
-        <v>1.8366485269281276E-2</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-2.6022355362908867E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -8268,15 +7506,11 @@
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
-        <v>1.9642928662282941E-2</v>
-      </c>
-      <c r="C26" s="44">
-        <v>2.3559308428948995E-2</v>
-      </c>
-      <c r="D26" s="51">
+      <c r="B26" s="16"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.19937860764041915</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
@@ -8285,15 +7519,11 @@
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
-        <v>1336.5825004997</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1213.2740584842209</v>
-      </c>
-      <c r="D27" s="51">
+      <c r="B27" s="16"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>9.2256513884760971E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
@@ -8302,15 +7532,11 @@
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
-        <v>3.3372364688331942E-2</v>
-      </c>
-      <c r="C28" s="44">
-        <v>3.2717197669780887E-2</v>
-      </c>
-      <c r="D28" s="51">
+      <c r="B28" s="16"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>1.9632022623201184E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
@@ -8319,15 +7545,11 @@
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>0.61922252831343727</v>
-      </c>
-      <c r="C29" s="45">
-        <v>0.60278663914430497</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="17"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>2.6542782953808852E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -8336,15 +7558,11 @@
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>0.75380710659898476</v>
-      </c>
-      <c r="C30" s="45">
-        <v>0.7448979591836733</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="B30" s="17"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>1.1818868961726348E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -8353,15 +7571,11 @@
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>1.0995463859713008E-2</v>
-      </c>
-      <c r="C31" s="45">
-        <v>1.4072123085208006E-2</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="B31" s="17"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.27981168095761455</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
@@ -8370,15 +7584,11 @@
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
-        <v>1382.094276094276</v>
-      </c>
-      <c r="C32" s="45">
-        <v>1237.6472602739725</v>
-      </c>
-      <c r="D32" s="51">
+      <c r="B32" s="17"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.10451314235126052</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
@@ -8387,15 +7597,11 @@
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>5.3454963299971988E-3</v>
-      </c>
-      <c r="C33" s="45">
-        <v>5.5067886549175302E-3</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="17"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-3.0173498392508602E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
@@ -8404,15 +7610,11 @@
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>1136.1155312383089</v>
-      </c>
-      <c r="C34" s="45">
-        <v>1017.0458913622523</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="B34" s="17"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.10480416524741698</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
@@ -8421,15 +7623,11 @@
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>0.15790629555026903</v>
-      </c>
-      <c r="C35" s="45">
-        <v>0.12855087108031282</v>
-      </c>
-      <c r="D35" s="51">
+      <c r="B35" s="17"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.18590407917340435</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
@@ -8438,15 +7636,11 @@
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
-        <v>2859.424242424242</v>
-      </c>
-      <c r="C36" s="45">
-        <v>2881.5924657534247</v>
-      </c>
-      <c r="D36" s="51">
+      <c r="B36" s="17"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-7.7526877615012868E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
@@ -8455,15 +7649,11 @@
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
-        <v>4.1276670745914873E-2</v>
-      </c>
-      <c r="C37" s="45">
-        <v>3.9844145714889839E-2</v>
-      </c>
-      <c r="D37" s="51">
+      <c r="B37" s="17"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>3.4705440267776666E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
@@ -8472,15 +7662,11 @@
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
-        <v>3.7545169218528838E-5</v>
-      </c>
-      <c r="C38" s="45">
-        <v>4.2141173297053738E-5</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="B38" s="17"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.12241266118083538</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
@@ -8489,15 +7675,11 @@
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="18">
-        <v>1.9787450662712612E-2</v>
-      </c>
-      <c r="C39" s="46">
-        <v>1.7349245390124269E-2</v>
-      </c>
-      <c r="D39" s="51">
+      <c r="B39" s="18"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.12321977773432369</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
@@ -8506,15 +7688,11 @@
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="18">
-        <v>1.2494933649098021</v>
-      </c>
-      <c r="C40" s="46">
-        <v>1.367279791579846</v>
-      </c>
-      <c r="D40" s="51">
+      <c r="B40" s="18"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-9.4267348653385374E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
@@ -8523,15 +7701,11 @@
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="18">
-        <v>3.407188565234081E-2</v>
-      </c>
-      <c r="C41" s="46">
-        <v>4.3436534287230016E-2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="B41" s="18"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-0.27484973184176664</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
@@ -8540,15 +7714,11 @@
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="18">
-        <v>10909.963578726121</v>
-      </c>
-      <c r="C42" s="46">
-        <v>11249.669606239357</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="B42" s="18"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>-3.1137228374954917E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
@@ -8557,15 +7727,11 @@
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="18">
-        <v>28.169619763432625</v>
-      </c>
-      <c r="C43" s="46">
-        <v>22.949190266877661</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="B43" s="18"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="51" t="e">
         <f>1-Tabelle245678[[#This Row],[Simulated 4]]/Tabelle245678[[#This Row],[Measured 4]]</f>
-        <v>0.18532126242370073</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="26"/>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" activeTab="1" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="62">
   <si>
     <t>Jana Struct TextureFeature Zuordnung</t>
   </si>
@@ -380,6 +380,12 @@
   <si>
     <t>ohne transformation</t>
   </si>
+  <si>
+    <t>strong_relevant</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +394,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +459,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +532,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -698,14 +716,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -799,9 +829,49 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Gut" xfId="4" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2231,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3EFAE-63B8-4ED6-8665-8A41871E76EB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3858,230 +3928,828 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="82"/>
+    <col min="4" max="4" width="19.6640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="B2" s="82" t="str">
+        <f>IF(C2&lt;&gt;0,"Signifikant"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C2" s="82">
+        <v>0</v>
+      </c>
+      <c r="D2" s="83" t="str">
+        <f>IF(E2&lt;&gt;0,"Interessant"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E2" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="82" t="str">
+        <f t="shared" ref="B3:B42" si="0">IF(C3&lt;&gt;0,"Signifikant"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C3" s="82">
+        <v>0</v>
+      </c>
+      <c r="D3" s="83" t="str">
+        <f t="shared" ref="D3:D43" si="1">IF(E3&lt;&gt;0,"Interessant"," ")</f>
+        <v>Interessant</v>
+      </c>
+      <c r="E3" s="83">
+        <v>-0.84334340705856004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="B4" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" s="82">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="B5" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C5" s="82">
+        <v>0.98094415724929396</v>
+      </c>
+      <c r="D5" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E5" s="83">
+        <v>0.98094415724929396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="B6" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="82">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E6" s="83">
+        <v>0.90667141539436702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="B7" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="82">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="B8" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="82">
+        <v>0</v>
+      </c>
+      <c r="D8" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E8" s="83">
+        <v>0.78863358261163596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="B9" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="82">
+        <v>0</v>
+      </c>
+      <c r="D9" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E9" s="83">
+        <v>0.94225755928788602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="B10" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C10" s="82">
+        <v>0.983464848574366</v>
+      </c>
+      <c r="D10" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E10" s="83">
+        <v>0.983464848574366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="B11" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C11" s="82">
+        <v>0.96852446011525595</v>
+      </c>
+      <c r="D11" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E11" s="83">
+        <v>0.96852446011525595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="B12" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C12" s="82">
+        <v>0</v>
+      </c>
+      <c r="D12" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0.880414083092942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C13" s="82">
+        <v>0</v>
+      </c>
+      <c r="D13" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E13" s="83">
+        <v>0.59865021210115799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="B14" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="82">
+        <v>0</v>
+      </c>
+      <c r="D14" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E14" s="83">
+        <v>0.65352193986602303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="B15" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C15" s="82">
+        <v>0.97674279578822198</v>
+      </c>
+      <c r="D15" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E15" s="83">
+        <v>0.97674279578822198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="B16" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="82">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0.58878704386803604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="B17" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C17" s="82">
+        <v>0</v>
+      </c>
+      <c r="D17" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E17" s="83">
+        <v>0.62505964320140095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="B18" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C18" s="82">
+        <v>-0.96788888686397101</v>
+      </c>
+      <c r="D18" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E18" s="83">
+        <v>-0.96788888686397101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="B19" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C19" s="82">
+        <v>0.97351887955009098</v>
+      </c>
+      <c r="D19" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E19" s="83">
+        <v>0.97351887955009098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="B20" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C20" s="82">
+        <v>0.96059237873661696</v>
+      </c>
+      <c r="D20" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0.96059237873661696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="B21" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C21" s="82">
+        <v>0</v>
+      </c>
+      <c r="D21" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E21" s="83">
+        <v>0.92409378832753297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="B22" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C22" s="82">
+        <v>0.99973594679469802</v>
+      </c>
+      <c r="D22" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E22" s="83">
+        <v>0.99973594679469802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="B23" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C23" s="82">
+        <v>0</v>
+      </c>
+      <c r="D23" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E23" s="83">
+        <v>0.71849382730993205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="B24" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C24" s="82">
+        <v>0</v>
+      </c>
+      <c r="D24" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0.64996905256680304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="B25" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C25" s="82">
+        <v>0</v>
+      </c>
+      <c r="D25" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E25" s="83">
+        <v>0.93343263907822105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="B26" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C26" s="82">
+        <v>-0.98373744652900696</v>
+      </c>
+      <c r="D26" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E26" s="83">
+        <v>-0.98373744652900696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="B27" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C27" s="82">
+        <v>0.97598760147302799</v>
+      </c>
+      <c r="D27" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E27" s="83">
+        <v>0.97598760147302799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="B28" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C28" s="82">
+        <v>0</v>
+      </c>
+      <c r="D28" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E28" s="83">
+        <v>0.921403954645723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="B29" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C29" s="82">
+        <v>0</v>
+      </c>
+      <c r="D29" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E29" s="83">
+        <v>0.70938857081172502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="77" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="B30" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C30" s="82">
+        <v>0</v>
+      </c>
+      <c r="D30" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E30" s="83">
+        <v>0.53021105748659303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="71" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="B31" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C31" s="82">
+        <v>0</v>
+      </c>
+      <c r="D31" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E31" s="83">
+        <v>0.50402048293739898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="79" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="B32" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C32" s="82">
+        <v>0.98640124814101904</v>
+      </c>
+      <c r="D32" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E32" s="83">
+        <v>0.98640124814101904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="71" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="B33" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C33" s="82">
+        <v>0</v>
+      </c>
+      <c r="D33" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E33" s="83">
+        <v>0.87951332144286598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="80" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+      <c r="B34" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C34" s="82">
+        <v>0.98441429728291097</v>
+      </c>
+      <c r="D34" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E34" s="83">
+        <v>0.98441429728291097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="80" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="B35" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C35" s="82">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E35" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="80" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="B36" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C36" s="82">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E36" s="83">
+        <v>-0.84437614994385801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="80" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="B37" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C37" s="82">
+        <v>0</v>
+      </c>
+      <c r="D37" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E37" s="83">
+        <v>0.88985847317508604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="80" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="B38" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C38" s="82">
+        <v>0</v>
+      </c>
+      <c r="D38" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E38" s="83">
+        <v>-0.55957873713127604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="81" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+      <c r="B39" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C39" s="82">
+        <v>0</v>
+      </c>
+      <c r="D39" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0.59984490126308398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="B40" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C40" s="82">
+        <v>0</v>
+      </c>
+      <c r="D40" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E40" s="83">
+        <v>0.94939894857966201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="81" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="B41" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C41" s="82">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E41" s="83">
+        <v>0.887779232640306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="81" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="B42" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Signifikant</v>
+      </c>
+      <c r="C42" s="82">
+        <v>0.97753699258675497</v>
+      </c>
+      <c r="D42" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E42" s="83">
+        <v>0.97753699258675497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="81" t="s">
         <v>42</v>
+      </c>
+      <c r="B43" s="82" t="str">
+        <f>IF(C43&lt;&gt;0,"Signifikant"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C43" s="82">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>Interessant</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0.79491795524470799</v>
       </c>
     </row>
   </sheetData>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6984" tabRatio="703" activeTab="1" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6990" tabRatio="703" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="D3_Compare" sheetId="11" r:id="rId7"/>
     <sheet name="D4_Compare" sheetId="12" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Which_Feature_to_be_watched!$A$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -199,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="71">
   <si>
     <t>Jana Struct TextureFeature Zuordnung</t>
   </si>
@@ -381,10 +384,37 @@
     <t>ohne transformation</t>
   </si>
   <si>
-    <t>strong_relevant</t>
+    <t>GLCM - GTDSM 'Energy' or 'SecondAngularMoment'</t>
   </si>
   <si>
-    <t>relevant</t>
+    <t>GLCM or GTDSM 'Contrast'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLCM or GTDSM 'Correlation'</t>
+  </si>
+  <si>
+    <t>GLCM or GTDSM  'SumAverage'</t>
+  </si>
+  <si>
+    <t>GLCM or GTDSM  'Entropy'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLCM or GTDSM 'Variance'</t>
+  </si>
+  <si>
+    <t>GLCM or GTDSM  'Dissimilarity'</t>
+  </si>
+  <si>
+    <t>GLCM or GTDSM 'Homogeneity'</t>
+  </si>
+  <si>
+    <t>GLCM or GTDSM 'Energy'</t>
+  </si>
+  <si>
+    <t>relevant (r&gt;0,5)</t>
+  </si>
+  <si>
+    <t>strong_relevant p&lt;0,05</t>
   </si>
 </sst>
 </file>
@@ -538,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -717,12 +747,137 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -735,7 +890,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -829,45 +984,61 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="5" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -2301,21 +2472,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3EFAE-63B8-4ED6-8665-8A41871E76EB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="13" customWidth="1"/>
-    <col min="3" max="10" width="12.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="34" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2530,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2571,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2608,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -2474,9 +2645,9 @@
       <c r="N4" s="29"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B5" s="9">
         <v>1.3416292925342601E-3</v>
@@ -2511,9 +2682,9 @@
       <c r="N5" s="30"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9">
         <v>82.941612976187997</v>
@@ -2548,9 +2719,9 @@
       <c r="N6" s="30"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9">
         <v>0.54137640003339005</v>
@@ -2585,9 +2756,9 @@
       <c r="N7" s="30"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9">
         <v>0.227737352063973</v>
@@ -2622,9 +2793,9 @@
       <c r="N8" s="30"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9">
         <v>4.8940948857609697E-3</v>
@@ -2659,9 +2830,9 @@
       <c r="N9" s="30"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B10" s="9">
         <v>9.8703730932132991</v>
@@ -2696,9 +2867,9 @@
       <c r="N10" s="30"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B11" s="9">
         <v>2.2003700187942399E-2</v>
@@ -2733,9 +2904,9 @@
       <c r="N11" s="30"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9">
         <v>7.0766290081309302</v>
@@ -2770,7 +2941,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2807,7 +2978,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +3015,7 @@
       <c r="N14" s="31"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +3052,7 @@
       <c r="N15" s="31"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +3089,7 @@
       <c r="N16" s="31"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -2955,7 +3126,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -2992,7 +3163,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3200,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -3066,7 +3237,7 @@
       <c r="N20" s="31"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3274,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3311,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -3177,7 +3348,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -3214,7 +3385,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -3251,7 +3422,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -3288,7 +3459,7 @@
       <c r="N26" s="31"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3496,7 @@
       <c r="N27" s="31"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -3362,7 +3533,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -3399,7 +3570,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -3436,7 +3607,7 @@
       <c r="N30" s="32"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -3473,7 +3644,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -3510,7 +3681,7 @@
       <c r="N32" s="32"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -3547,7 +3718,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -3584,7 +3755,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3792,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -3658,7 +3829,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -3695,7 +3866,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -3732,7 +3903,7 @@
       <c r="N38" s="32"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -3769,7 +3940,7 @@
       <c r="N39" s="33"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -3806,7 +3977,7 @@
       <c r="N40" s="33"/>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -3843,7 +4014,7 @@
       <c r="N41" s="33"/>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -3880,7 +4051,7 @@
       <c r="N42" s="33"/>
       <c r="O42" s="26"/>
     </row>
-    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -3928,833 +4099,842 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="82"/>
-    <col min="4" max="4" width="19.6640625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="83"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="69" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="str">
+      <c r="B2" s="71" t="str">
         <f>IF(C2&lt;&gt;0,"Signifikant"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="71">
         <v>0</v>
       </c>
-      <c r="D2" s="83" t="str">
+      <c r="D2" s="72" t="str">
         <f>IF(E2&lt;&gt;0,"Interessant"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="69" t="str">
         <f t="shared" ref="B3:B42" si="0">IF(C3&lt;&gt;0,"Signifikant"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="69">
         <v>0</v>
       </c>
-      <c r="D3" s="83" t="str">
+      <c r="D3" s="70" t="str">
         <f t="shared" ref="D3:D43" si="1">IF(E3&lt;&gt;0,"Interessant"," ")</f>
         <v>Interessant</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="80">
         <v>-0.84334340705856004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82" t="str">
+      <c r="B4" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="69">
         <v>0</v>
       </c>
-      <c r="D4" s="83" t="str">
+      <c r="D4" s="70" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="82" t="str">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="69">
         <v>0.98094415724929396</v>
       </c>
-      <c r="D5" s="83" t="str">
+      <c r="D5" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="80">
         <v>0.98094415724929396</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="82" t="str">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="69">
         <v>0</v>
       </c>
-      <c r="D6" s="83" t="str">
+      <c r="D6" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="80">
         <v>0.90667141539436702</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="82" t="str">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="69">
         <v>0</v>
       </c>
-      <c r="D7" s="83" t="str">
+      <c r="D7" s="70" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="82" t="str">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="69">
         <v>0</v>
       </c>
-      <c r="D8" s="83" t="str">
+      <c r="D8" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="80">
         <v>0.78863358261163596</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="82" t="str">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="69">
         <v>0</v>
       </c>
-      <c r="D9" s="83" t="str">
+      <c r="D9" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="80">
         <v>0.94225755928788602</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="82" t="str">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="69">
         <v>0.983464848574366</v>
       </c>
-      <c r="D10" s="83" t="str">
+      <c r="D10" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="80">
         <v>0.983464848574366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="82" t="str">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="69">
         <v>0.96852446011525595</v>
       </c>
-      <c r="D11" s="83" t="str">
+      <c r="D11" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="80">
         <v>0.96852446011525595</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="82" t="str">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="69">
         <v>0</v>
       </c>
-      <c r="D12" s="83" t="str">
+      <c r="D12" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="80">
         <v>0.880414083092942</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="82" t="str">
+      <c r="B13" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="69">
         <v>0</v>
       </c>
-      <c r="D13" s="83" t="str">
+      <c r="D13" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="80">
         <v>0.59865021210115799</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="82" t="str">
+      <c r="B14" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="69">
         <v>0</v>
       </c>
-      <c r="D14" s="83" t="str">
+      <c r="D14" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="80">
         <v>0.65352193986602303</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="82" t="str">
+      <c r="B15" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="69">
         <v>0.97674279578822198</v>
       </c>
-      <c r="D15" s="83" t="str">
+      <c r="D15" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="80">
         <v>0.97674279578822198</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="82" t="str">
+      <c r="B16" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="69">
         <v>0</v>
       </c>
-      <c r="D16" s="83" t="str">
+      <c r="D16" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="80">
         <v>0.58878704386803604</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="82" t="str">
+      <c r="B17" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="69">
         <v>0</v>
       </c>
-      <c r="D17" s="83" t="str">
+      <c r="D17" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="80">
         <v>0.62505964320140095</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="82" t="str">
+      <c r="B18" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="69">
         <v>-0.96788888686397101</v>
       </c>
-      <c r="D18" s="83" t="str">
+      <c r="D18" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="80">
         <v>-0.96788888686397101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="82" t="str">
+      <c r="B19" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="69">
         <v>0.97351887955009098</v>
       </c>
-      <c r="D19" s="83" t="str">
+      <c r="D19" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="80">
         <v>0.97351887955009098</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="82" t="str">
+      <c r="B20" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="69">
         <v>0.96059237873661696</v>
       </c>
-      <c r="D20" s="83" t="str">
+      <c r="D20" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="80">
         <v>0.96059237873661696</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="82" t="str">
+      <c r="B21" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="69">
         <v>0</v>
       </c>
-      <c r="D21" s="83" t="str">
+      <c r="D21" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="80">
         <v>0.92409378832753297</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="82" t="str">
+      <c r="B22" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="69">
         <v>0.99973594679469802</v>
       </c>
-      <c r="D22" s="83" t="str">
+      <c r="D22" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="80">
         <v>0.99973594679469802</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="82" t="str">
+      <c r="B23" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="69">
         <v>0</v>
       </c>
-      <c r="D23" s="83" t="str">
+      <c r="D23" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="80">
         <v>0.71849382730993205</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="82" t="str">
+      <c r="B24" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="69">
         <v>0</v>
       </c>
-      <c r="D24" s="83" t="str">
+      <c r="D24" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="80">
         <v>0.64996905256680304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="82" t="str">
+      <c r="B25" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="69">
         <v>0</v>
       </c>
-      <c r="D25" s="83" t="str">
+      <c r="D25" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="80">
         <v>0.93343263907822105</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="82" t="str">
+      <c r="B26" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="69">
         <v>-0.98373744652900696</v>
       </c>
-      <c r="D26" s="83" t="str">
+      <c r="D26" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="80">
         <v>-0.98373744652900696</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="82" t="str">
+      <c r="B27" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="69">
         <v>0.97598760147302799</v>
       </c>
-      <c r="D27" s="83" t="str">
+      <c r="D27" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="80">
         <v>0.97598760147302799</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="82" t="str">
+      <c r="B28" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="69">
         <v>0</v>
       </c>
-      <c r="D28" s="83" t="str">
+      <c r="D28" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="80">
         <v>0.921403954645723</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="82" t="str">
+      <c r="B29" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="69">
         <v>0</v>
       </c>
-      <c r="D29" s="83" t="str">
+      <c r="D29" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="80">
         <v>0.70938857081172502</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="82" t="str">
+      <c r="B30" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="69">
         <v>0</v>
       </c>
-      <c r="D30" s="83" t="str">
+      <c r="D30" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="80">
         <v>0.53021105748659303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="82" t="str">
+      <c r="B31" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="69">
         <v>0</v>
       </c>
-      <c r="D31" s="83" t="str">
+      <c r="D31" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="80">
         <v>0.50402048293739898</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="82" t="str">
+      <c r="B32" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="69">
         <v>0.98640124814101904</v>
       </c>
-      <c r="D32" s="83" t="str">
+      <c r="D32" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="80">
         <v>0.98640124814101904</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="82" t="str">
+      <c r="B33" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="69">
         <v>0</v>
       </c>
-      <c r="D33" s="83" t="str">
+      <c r="D33" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="80">
         <v>0.87951332144286598</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="80" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="82" t="str">
+      <c r="B34" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="69">
         <v>0.98441429728291097</v>
       </c>
-      <c r="D34" s="83" t="str">
+      <c r="D34" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="80">
         <v>0.98441429728291097</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="82" t="str">
+      <c r="B35" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="69">
         <v>0</v>
       </c>
-      <c r="D35" s="83" t="str">
+      <c r="D35" s="70" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="80" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="82" t="str">
+      <c r="B36" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="69">
         <v>0</v>
       </c>
-      <c r="D36" s="83" t="str">
+      <c r="D36" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="80">
         <v>-0.84437614994385801</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="82" t="str">
+      <c r="B37" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="69">
         <v>0</v>
       </c>
-      <c r="D37" s="83" t="str">
+      <c r="D37" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="80">
         <v>0.88985847317508604</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="82" t="str">
+      <c r="B38" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="69">
         <v>0</v>
       </c>
-      <c r="D38" s="83" t="str">
+      <c r="D38" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="80">
         <v>-0.55957873713127604</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="82" t="str">
+      <c r="B39" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="69">
         <v>0</v>
       </c>
-      <c r="D39" s="83" t="str">
+      <c r="D39" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="80">
         <v>0.59984490126308398</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="82" t="str">
+      <c r="B40" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="69">
         <v>0</v>
       </c>
-      <c r="D40" s="83" t="str">
+      <c r="D40" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="80">
         <v>0.94939894857966201</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="82" t="str">
+      <c r="B41" s="69" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="69">
         <v>0</v>
       </c>
-      <c r="D41" s="83" t="str">
+      <c r="D41" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="80">
         <v>0.887779232640306</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="81" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="82" t="str">
+      <c r="B42" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Signifikant</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="69">
         <v>0.97753699258675497</v>
       </c>
-      <c r="D42" s="83" t="str">
+      <c r="D42" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="80">
         <v>0.97753699258675497</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="82" t="str">
+      <c r="B43" s="93" t="str">
         <f>IF(C43&lt;&gt;0,"Signifikant"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="93">
         <v>0</v>
       </c>
-      <c r="D43" s="83" t="str">
+      <c r="D43" s="94" t="str">
         <f t="shared" si="1"/>
         <v>Interessant</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="95">
         <v>0.79491795524470799</v>
       </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4766,15 +4946,15 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +4965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4980,7 @@
         <v>0.22100390029524827</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
@@ -4815,7 +4995,7 @@
         <v>-20.738395527237444</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -4830,7 +5010,7 @@
         <v>-2.8374759913231831</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>57</v>
       </c>
@@ -4845,7 +5025,7 @@
         <v>1.5289763834216858</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -4860,7 +5040,7 @@
         <v>2.9628655086972087</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
@@ -4875,7 +5055,7 @@
         <v>0.96632496296385195</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
@@ -4890,7 +5070,7 @@
         <v>0.98047604427471413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -4905,7 +5085,7 @@
         <v>0.81663098920756272</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
@@ -4920,7 +5100,7 @@
         <v>0.8915843690456291</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -4935,7 +5115,7 @@
         <v>1.8538821007245201</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
@@ -4950,7 +5130,7 @@
         <v>2.5799069109485777</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -4965,7 +5145,7 @@
         <v>8.1141674582550873</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -4980,7 +5160,7 @@
         <v>0.6730437252298882</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -4995,7 +5175,7 @@
         <v>0.53079394521493595</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -5010,7 +5190,7 @@
         <v>4.731792326014487</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -5025,7 +5205,7 @@
         <v>1.7005796902810768</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -5040,7 +5220,7 @@
         <v>0.65559777286450649</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -5055,7 +5235,7 @@
         <v>2.6986414747414047</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -5070,7 +5250,7 @@
         <v>0.25976781062598786</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -5085,7 +5265,7 @@
         <v>13.372416259839857</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -5100,7 +5280,7 @@
         <v>0.61038626160105325</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>22</v>
       </c>
@@ -5115,7 +5295,7 @@
         <v>10857807428.36091</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -5130,7 +5310,7 @@
         <v>1.1401258236302761E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -5145,7 +5325,7 @@
         <v>0.75224966808175997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -5160,7 +5340,7 @@
         <v>2.7117620565402185</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -5175,7 +5355,7 @@
         <v>28.081324955208988</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -5190,7 +5370,7 @@
         <v>1.251657275145535</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>28</v>
       </c>
@@ -5205,7 +5385,7 @@
         <v>0.35466898326476398</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -5220,7 +5400,7 @@
         <v>124.71569979779608</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>30</v>
       </c>
@@ -5235,7 +5415,7 @@
         <v>0.4856050382366176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5430,7 @@
         <v>4.1538461538461595</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>32</v>
       </c>
@@ -5265,7 +5445,7 @@
         <v>3746612192.0750699</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -5280,7 +5460,7 @@
         <v>54431080203.797195</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -5295,7 +5475,7 @@
         <v>1.9515437015490144E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -5310,7 +5490,7 @@
         <v>4.5640310354127748E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -5325,7 +5505,7 @@
         <v>0.5669448606432177</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -5340,7 +5520,7 @@
         <v>5.865728178013417E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -5355,7 +5535,7 @@
         <v>1.7834100925449967</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -5370,7 +5550,7 @@
         <v>0.76630452864961585</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -5385,7 +5565,7 @@
         <v>0.14445492813477548</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -5400,7 +5580,7 @@
         <v>8.4496932746363491</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -5429,17 +5609,17 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5461,7 +5641,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -5478,7 +5658,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -5491,7 +5671,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5504,7 +5684,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -5517,7 +5697,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -5530,7 +5710,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -5543,7 +5723,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -5556,7 +5736,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -5569,7 +5749,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -5582,7 +5762,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -5595,7 +5775,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -5608,7 +5788,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -5621,7 +5801,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -5634,7 +5814,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -5647,7 +5827,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -5660,7 +5840,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -5673,7 +5853,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -5686,7 +5866,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -5699,7 +5879,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -5712,7 +5892,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -5725,7 +5905,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -5738,7 +5918,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -5751,7 +5931,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -5764,7 +5944,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -5777,7 +5957,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -5790,7 +5970,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -5803,7 +5983,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -5816,7 +5996,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -5829,7 +6009,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -5842,7 +6022,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +6035,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -5868,7 +6048,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -5881,7 +6061,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -5894,7 +6074,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -5907,7 +6087,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -5920,7 +6100,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -5933,7 +6113,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -5946,7 +6126,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -5959,7 +6139,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -5972,7 +6152,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -5985,7 +6165,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -5998,7 +6178,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6028,16 +6208,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6239,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6076,7 +6256,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6089,7 +6269,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6102,7 +6282,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6115,7 +6295,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6128,7 +6308,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -6141,7 +6321,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -6154,7 +6334,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -6167,7 +6347,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -6180,7 +6360,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -6193,7 +6373,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6206,7 +6386,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -6219,7 +6399,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -6232,7 +6412,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -6245,7 +6425,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -6258,7 +6438,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -6271,7 +6451,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -6284,7 +6464,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -6297,7 +6477,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -6310,7 +6490,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -6323,7 +6503,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -6336,7 +6516,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -6349,7 +6529,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -6362,7 +6542,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -6375,7 +6555,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -6388,7 +6568,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -6401,7 +6581,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -6414,7 +6594,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -6427,7 +6607,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -6440,7 +6620,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -6453,7 +6633,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -6466,7 +6646,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6659,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -6492,7 +6672,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -6505,7 +6685,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -6518,7 +6698,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -6531,7 +6711,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -6544,7 +6724,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -6557,7 +6737,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -6570,7 +6750,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -6583,7 +6763,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -6596,7 +6776,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6626,16 +6806,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6837,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6674,7 +6854,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6687,7 +6867,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6700,7 +6880,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6713,7 +6893,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6726,7 +6906,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -6739,7 +6919,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -6752,7 +6932,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -6765,7 +6945,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -6778,7 +6958,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -6791,7 +6971,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6804,7 +6984,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -6817,7 +6997,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -6830,7 +7010,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -6843,7 +7023,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -6856,7 +7036,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -6869,7 +7049,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -6882,7 +7062,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -6895,7 +7075,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -6908,7 +7088,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -6921,7 +7101,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -6934,7 +7114,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -6947,7 +7127,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -6960,7 +7140,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -6973,7 +7153,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -6986,7 +7166,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -6999,7 +7179,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7012,7 +7192,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7205,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7038,7 +7218,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7051,7 +7231,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7064,7 +7244,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7077,7 +7257,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7090,7 +7270,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7103,7 +7283,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7116,7 +7296,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7129,7 +7309,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -7142,7 +7322,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -7155,7 +7335,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -7168,7 +7348,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -7181,7 +7361,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -7194,7 +7374,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -7224,16 +7404,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7435,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -7272,7 +7452,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -7285,7 +7465,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -7298,7 +7478,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -7311,7 +7491,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -7324,7 +7504,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -7337,7 +7517,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -7350,7 +7530,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -7363,7 +7543,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -7376,7 +7556,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -7389,7 +7569,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -7402,7 +7582,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -7415,7 +7595,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -7428,7 +7608,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -7441,7 +7621,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -7454,7 +7634,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -7467,7 +7647,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -7480,7 +7660,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -7493,7 +7673,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -7506,7 +7686,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -7519,7 +7699,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7712,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -7545,7 +7725,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -7558,7 +7738,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -7571,7 +7751,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -7584,7 +7764,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -7597,7 +7777,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7610,7 +7790,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7623,7 +7803,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7636,7 +7816,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7649,7 +7829,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7662,7 +7842,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7675,7 +7855,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7688,7 +7868,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7701,7 +7881,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7714,7 +7894,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7727,7 +7907,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -7740,7 +7920,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -7753,7 +7933,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -7766,7 +7946,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -7779,7 +7959,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -7792,7 +7972,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -7822,17 +8002,17 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7854,7 +8034,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -7871,7 +8051,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -7884,7 +8064,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -7897,7 +8077,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -7910,7 +8090,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -7923,7 +8103,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -7936,7 +8116,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -7949,7 +8129,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -7962,7 +8142,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -7975,7 +8155,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -7988,7 +8168,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -8001,7 +8181,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -8014,7 +8194,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -8027,7 +8207,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -8040,7 +8220,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -8053,7 +8233,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -8066,7 +8246,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -8079,7 +8259,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -8092,7 +8272,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -8105,7 +8285,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -8118,7 +8298,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -8131,7 +8311,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -8144,7 +8324,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -8157,7 +8337,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -8170,7 +8350,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -8183,7 +8363,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -8196,7 +8376,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -8209,7 +8389,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -8222,7 +8402,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -8235,7 +8415,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -8248,7 +8428,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -8261,7 +8441,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -8274,7 +8454,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -8287,7 +8467,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -8300,7 +8480,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -8313,7 +8493,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -8326,7 +8506,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -8339,7 +8519,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -8352,7 +8532,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -8365,7 +8545,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -8378,7 +8558,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -8391,7 +8571,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\01-NEMA_Phantom\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391EA5BA-6836-45FC-831D-D68F53510FA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6990" tabRatio="703" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6996" tabRatio="703" activeTab="2" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="D4_Compare" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Which_Feature_to_be_watched!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Which_Feature_to_be_watched!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
   <si>
     <t>Jana Struct TextureFeature Zuordnung</t>
   </si>
@@ -416,6 +417,38 @@
   <si>
     <t>strong_relevant p&lt;0,05</t>
   </si>
+  <si>
+    <r>
+      <t>significant_diff_in_val_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>significant_diff_in_val_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sim</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +600,20 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -882,6 +927,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -890,7 +965,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1039,6 +1114,14 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -2472,21 +2555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3EFAE-63B8-4ED6-8665-8A41871E76EB}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
-    <col min="3" max="10" width="12.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="34" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="27"/>
+    <col min="2" max="2" width="12.6640625" style="13" customWidth="1"/>
+    <col min="3" max="10" width="12.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2613,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -2571,7 +2654,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2691,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2728,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>68</v>
       </c>
@@ -2682,7 +2765,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>61</v>
       </c>
@@ -2719,7 +2802,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>62</v>
       </c>
@@ -2756,7 +2839,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +2876,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>63</v>
       </c>
@@ -2830,7 +2913,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>64</v>
       </c>
@@ -2867,7 +2950,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>65</v>
       </c>
@@ -2904,7 +2987,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
@@ -2941,7 +3024,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +3061,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3098,7 @@
       <c r="N14" s="31"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3135,7 @@
       <c r="N15" s="31"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -3089,7 +3172,7 @@
       <c r="N16" s="31"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -3126,7 +3209,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -3163,7 +3246,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3283,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -3237,7 +3320,7 @@
       <c r="N20" s="31"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -3274,7 +3357,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3394,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -3348,7 +3431,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -3385,7 +3468,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -3422,7 +3505,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -3459,7 +3542,7 @@
       <c r="N26" s="31"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -3496,7 +3579,7 @@
       <c r="N27" s="31"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -3533,7 +3616,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -3570,7 +3653,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -3607,7 +3690,7 @@
       <c r="N30" s="32"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -3644,7 +3727,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -3681,7 +3764,7 @@
       <c r="N32" s="32"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -3718,7 +3801,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -3755,7 +3838,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -3792,7 +3875,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -3829,7 +3912,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +3949,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -3903,7 +3986,7 @@
       <c r="N38" s="32"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -3940,7 +4023,7 @@
       <c r="N39" s="33"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -3977,7 +4060,7 @@
       <c r="N40" s="33"/>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -4014,7 +4097,7 @@
       <c r="N41" s="33"/>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -4051,7 +4134,7 @@
       <c r="N42" s="33"/>
       <c r="O42" s="26"/>
     </row>
-    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -4099,22 +4182,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="70" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="69" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="69" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -4126,8 +4213,16 @@
         <v>69</v>
       </c>
       <c r="E1" s="75"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="100"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -4145,8 +4240,22 @@
       <c r="E2" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="98" t="str">
+        <f>IF(G2&lt;&gt;0,"sig. Unterschied"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G2" s="98">
+        <v>0</v>
+      </c>
+      <c r="H2" s="99" t="str">
+        <f>IF(I2&lt;&gt;0,"sig. Unterschied"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I2" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -4164,8 +4273,22 @@
       <c r="E3" s="80">
         <v>-0.84334340705856004</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="96" t="str">
+        <f t="shared" ref="F3:H43" si="2">IF(G3&lt;&gt;0,"sig. Unterschied"," ")</f>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G3" s="96">
+        <v>1</v>
+      </c>
+      <c r="H3" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I3" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4306,22 @@
       <c r="E4" s="80">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G4" s="96">
+        <v>1</v>
+      </c>
+      <c r="H4" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I4" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
         <v>60</v>
       </c>
@@ -4202,8 +4339,22 @@
       <c r="E5" s="80">
         <v>0.98094415724929396</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G5" s="96">
+        <v>1</v>
+      </c>
+      <c r="H5" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I5" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="79" t="s">
         <v>61</v>
       </c>
@@ -4221,8 +4372,22 @@
       <c r="E6" s="80">
         <v>0.90667141539436702</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G6" s="96">
+        <v>1</v>
+      </c>
+      <c r="H6" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I6" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
         <v>62</v>
       </c>
@@ -4240,8 +4405,22 @@
       <c r="E7" s="80">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G7" s="96">
+        <v>0</v>
+      </c>
+      <c r="H7" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I7" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
         <v>67</v>
       </c>
@@ -4259,8 +4438,22 @@
       <c r="E8" s="80">
         <v>0.78863358261163596</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G8" s="96">
+        <v>1</v>
+      </c>
+      <c r="H8" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I8" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
         <v>63</v>
       </c>
@@ -4278,8 +4471,22 @@
       <c r="E9" s="80">
         <v>0.94225755928788602</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G9" s="96">
+        <v>1</v>
+      </c>
+      <c r="H9" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I9" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
         <v>64</v>
       </c>
@@ -4297,8 +4504,22 @@
       <c r="E10" s="80">
         <v>0.983464848574366</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G10" s="96">
+        <v>0</v>
+      </c>
+      <c r="H10" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I10" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="83" t="s">
         <v>65</v>
       </c>
@@ -4316,8 +4537,22 @@
       <c r="E11" s="80">
         <v>0.96852446011525595</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G11" s="96">
+        <v>1</v>
+      </c>
+      <c r="H11" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I11" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
         <v>66</v>
       </c>
@@ -4335,8 +4570,22 @@
       <c r="E12" s="80">
         <v>0.880414083092942</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G12" s="96">
+        <v>1</v>
+      </c>
+      <c r="H12" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I12" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
         <v>12</v>
       </c>
@@ -4354,8 +4603,22 @@
       <c r="E13" s="80">
         <v>0.59865021210115799</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G13" s="96">
+        <v>0</v>
+      </c>
+      <c r="H13" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I13" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>13</v>
       </c>
@@ -4373,8 +4636,22 @@
       <c r="E14" s="80">
         <v>0.65352193986602303</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14" s="96">
+        <v>0</v>
+      </c>
+      <c r="H14" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I14" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
         <v>14</v>
       </c>
@@ -4392,8 +4669,22 @@
       <c r="E15" s="80">
         <v>0.97674279578822198</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G15" s="96">
+        <v>1</v>
+      </c>
+      <c r="H15" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I15" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>15</v>
       </c>
@@ -4411,8 +4702,22 @@
       <c r="E16" s="80">
         <v>0.58878704386803604</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G16" s="96">
+        <v>0</v>
+      </c>
+      <c r="H16" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I16" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>16</v>
       </c>
@@ -4430,8 +4735,22 @@
       <c r="E17" s="80">
         <v>0.62505964320140095</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G17" s="96">
+        <v>0</v>
+      </c>
+      <c r="H17" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I17" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
         <v>17</v>
       </c>
@@ -4449,8 +4768,22 @@
       <c r="E18" s="80">
         <v>-0.96788888686397101</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G18" s="96">
+        <v>0</v>
+      </c>
+      <c r="H18" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I18" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>18</v>
       </c>
@@ -4468,8 +4801,22 @@
       <c r="E19" s="80">
         <v>0.97351887955009098</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G19" s="96">
+        <v>1</v>
+      </c>
+      <c r="H19" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I19" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>19</v>
       </c>
@@ -4487,8 +4834,22 @@
       <c r="E20" s="80">
         <v>0.96059237873661696</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G20" s="96">
+        <v>1</v>
+      </c>
+      <c r="H20" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I20" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>20</v>
       </c>
@@ -4506,8 +4867,22 @@
       <c r="E21" s="80">
         <v>0.92409378832753297</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G21" s="96">
+        <v>1</v>
+      </c>
+      <c r="H21" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I21" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>21</v>
       </c>
@@ -4525,8 +4900,22 @@
       <c r="E22" s="80">
         <v>0.99973594679469802</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G22" s="96">
+        <v>1</v>
+      </c>
+      <c r="H22" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I22" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
         <v>22</v>
       </c>
@@ -4544,8 +4933,22 @@
       <c r="E23" s="80">
         <v>0.71849382730993205</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G23" s="96">
+        <v>1</v>
+      </c>
+      <c r="H23" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I23" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
         <v>23</v>
       </c>
@@ -4563,8 +4966,22 @@
       <c r="E24" s="80">
         <v>0.64996905256680304</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G24" s="96">
+        <v>1</v>
+      </c>
+      <c r="H24" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I24" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
         <v>24</v>
       </c>
@@ -4582,8 +4999,22 @@
       <c r="E25" s="80">
         <v>0.93343263907822105</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G25" s="96">
+        <v>1</v>
+      </c>
+      <c r="H25" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I25" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>25</v>
       </c>
@@ -4601,8 +5032,22 @@
       <c r="E26" s="80">
         <v>-0.98373744652900696</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G26" s="96">
+        <v>1</v>
+      </c>
+      <c r="H26" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I26" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>26</v>
       </c>
@@ -4620,8 +5065,22 @@
       <c r="E27" s="80">
         <v>0.97598760147302799</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G27" s="96">
+        <v>1</v>
+      </c>
+      <c r="H27" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I27" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>27</v>
       </c>
@@ -4639,8 +5098,22 @@
       <c r="E28" s="80">
         <v>0.921403954645723</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G28" s="96">
+        <v>0</v>
+      </c>
+      <c r="H28" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I28" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="88" t="s">
         <v>28</v>
       </c>
@@ -4658,8 +5131,22 @@
       <c r="E29" s="80">
         <v>0.70938857081172502</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G29" s="96">
+        <v>1</v>
+      </c>
+      <c r="H29" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I29" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
         <v>29</v>
       </c>
@@ -4677,8 +5164,22 @@
       <c r="E30" s="80">
         <v>0.53021105748659303</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G30" s="96">
+        <v>1</v>
+      </c>
+      <c r="H30" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I30" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
         <v>30</v>
       </c>
@@ -4696,8 +5197,22 @@
       <c r="E31" s="80">
         <v>0.50402048293739898</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G31" s="96">
+        <v>1</v>
+      </c>
+      <c r="H31" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I31" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
         <v>31</v>
       </c>
@@ -4715,8 +5230,22 @@
       <c r="E32" s="80">
         <v>0.98640124814101904</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G32" s="96">
+        <v>1</v>
+      </c>
+      <c r="H32" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I32" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
         <v>32</v>
       </c>
@@ -4734,8 +5263,22 @@
       <c r="E33" s="80">
         <v>0.87951332144286598</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G33" s="96">
+        <v>1</v>
+      </c>
+      <c r="H33" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I33" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="90" t="s">
         <v>33</v>
       </c>
@@ -4753,8 +5296,22 @@
       <c r="E34" s="80">
         <v>0.98441429728291097</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G34" s="96">
+        <v>1</v>
+      </c>
+      <c r="H34" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I34" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="90" t="s">
         <v>34</v>
       </c>
@@ -4772,8 +5329,22 @@
       <c r="E35" s="80">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G35" s="96">
+        <v>1</v>
+      </c>
+      <c r="H35" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I35" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="90" t="s">
         <v>35</v>
       </c>
@@ -4791,8 +5362,22 @@
       <c r="E36" s="80">
         <v>-0.84437614994385801</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G36" s="96">
+        <v>1</v>
+      </c>
+      <c r="H36" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I36" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="90" t="s">
         <v>36</v>
       </c>
@@ -4810,8 +5395,22 @@
       <c r="E37" s="80">
         <v>0.88985847317508604</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G37" s="96">
+        <v>1</v>
+      </c>
+      <c r="H37" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I37" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="90" t="s">
         <v>37</v>
       </c>
@@ -4829,8 +5428,22 @@
       <c r="E38" s="80">
         <v>-0.55957873713127604</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G38" s="96">
+        <v>1</v>
+      </c>
+      <c r="H38" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I38" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="s">
         <v>38</v>
       </c>
@@ -4848,8 +5461,22 @@
       <c r="E39" s="80">
         <v>0.59984490126308398</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G39" s="96">
+        <v>1</v>
+      </c>
+      <c r="H39" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I39" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
         <v>39</v>
       </c>
@@ -4867,8 +5494,22 @@
       <c r="E40" s="80">
         <v>0.94939894857966201</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G40" s="96">
+        <v>1</v>
+      </c>
+      <c r="H40" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I40" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="s">
         <v>40</v>
       </c>
@@ -4886,8 +5527,22 @@
       <c r="E41" s="80">
         <v>0.887779232640306</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G41" s="96">
+        <v>1</v>
+      </c>
+      <c r="H41" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I41" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="91" t="s">
         <v>41</v>
       </c>
@@ -4905,8 +5560,22 @@
       <c r="E42" s="80">
         <v>0.97753699258675497</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G42" s="96">
+        <v>1</v>
+      </c>
+      <c r="H42" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I42" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>42</v>
       </c>
@@ -4924,8 +5593,22 @@
       <c r="E43" s="95">
         <v>0.79491795524470799</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="G43" s="96">
+        <v>1</v>
+      </c>
+      <c r="H43" s="97" t="str">
+        <f t="shared" si="2"/>
+        <v>sig. Unterschied</v>
+      </c>
+      <c r="I43" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="72"/>
@@ -4942,19 +5625,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8176F4A9-4881-448D-A0E0-F9B6D997CC24}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +5648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -4980,7 +5663,7 @@
         <v>0.22100390029524827</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
@@ -4995,7 +5678,7 @@
         <v>-20.738395527237444</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5010,7 +5693,7 @@
         <v>-2.8374759913231831</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>57</v>
       </c>
@@ -5025,7 +5708,7 @@
         <v>1.5289763834216858</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -5040,7 +5723,7 @@
         <v>2.9628655086972087</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
@@ -5055,7 +5738,7 @@
         <v>0.96632496296385195</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
@@ -5070,7 +5753,7 @@
         <v>0.98047604427471413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -5085,7 +5768,7 @@
         <v>0.81663098920756272</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5783,7 @@
         <v>0.8915843690456291</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -5115,7 +5798,7 @@
         <v>1.8538821007245201</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
@@ -5130,7 +5813,7 @@
         <v>2.5799069109485777</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -5145,7 +5828,7 @@
         <v>8.1141674582550873</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -5160,7 +5843,7 @@
         <v>0.6730437252298882</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -5175,7 +5858,7 @@
         <v>0.53079394521493595</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -5190,7 +5873,7 @@
         <v>4.731792326014487</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -5205,7 +5888,7 @@
         <v>1.7005796902810768</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -5220,7 +5903,7 @@
         <v>0.65559777286450649</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -5235,7 +5918,7 @@
         <v>2.6986414747414047</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -5250,7 +5933,7 @@
         <v>0.25976781062598786</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -5265,7 +5948,7 @@
         <v>13.372416259839857</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -5280,7 +5963,7 @@
         <v>0.61038626160105325</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>22</v>
       </c>
@@ -5295,7 +5978,7 @@
         <v>10857807428.36091</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -5310,7 +5993,7 @@
         <v>1.1401258236302761E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +6008,7 @@
         <v>0.75224966808175997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -5340,7 +6023,7 @@
         <v>2.7117620565402185</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -5355,7 +6038,7 @@
         <v>28.081324955208988</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -5370,7 +6053,7 @@
         <v>1.251657275145535</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>28</v>
       </c>
@@ -5385,7 +6068,7 @@
         <v>0.35466898326476398</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -5400,7 +6083,7 @@
         <v>124.71569979779608</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +6098,7 @@
         <v>0.4856050382366176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
         <v>31</v>
       </c>
@@ -5430,7 +6113,7 @@
         <v>4.1538461538461595</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>32</v>
       </c>
@@ -5445,7 +6128,7 @@
         <v>3746612192.0750699</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -5460,7 +6143,7 @@
         <v>54431080203.797195</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -5475,7 +6158,7 @@
         <v>1.9515437015490144E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -5490,7 +6173,7 @@
         <v>4.5640310354127748E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -5505,7 +6188,7 @@
         <v>0.5669448606432177</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -5520,7 +6203,7 @@
         <v>5.865728178013417E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -5535,7 +6218,7 @@
         <v>1.7834100925449967</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -5550,7 +6233,7 @@
         <v>0.76630452864961585</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -5565,7 +6248,7 @@
         <v>0.14445492813477548</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -5580,7 +6263,7 @@
         <v>8.4496932746363491</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -5609,17 +6292,17 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27"/>
+    <col min="2" max="2" width="12.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5641,7 +6324,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -5658,7 +6341,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -5671,7 +6354,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5684,7 +6367,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -5697,7 +6380,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +6393,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -5723,7 +6406,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -5736,7 +6419,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -5749,7 +6432,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -5762,7 +6445,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -5775,7 +6458,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -5788,7 +6471,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -5801,7 +6484,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -5814,7 +6497,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -5827,7 +6510,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -5840,7 +6523,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -5853,7 +6536,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -5866,7 +6549,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -5879,7 +6562,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -5892,7 +6575,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -5905,7 +6588,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +6601,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -5931,7 +6614,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -5944,7 +6627,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -5957,7 +6640,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -5970,7 +6653,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -5983,7 +6666,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -5996,7 +6679,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -6009,7 +6692,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -6022,7 +6705,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -6035,7 +6718,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -6048,7 +6731,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -6061,7 +6744,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -6074,7 +6757,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -6087,7 +6770,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -6100,7 +6783,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -6113,7 +6796,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -6126,7 +6809,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -6139,7 +6822,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -6152,7 +6835,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -6165,7 +6848,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -6178,7 +6861,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6208,16 +6891,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27"/>
+    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6922,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6256,7 +6939,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6269,7 +6952,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6282,7 +6965,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6295,7 +6978,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6308,7 +6991,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -6321,7 +7004,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +7017,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -6347,7 +7030,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -6360,7 +7043,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -6373,7 +7056,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6386,7 +7069,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -6399,7 +7082,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -6412,7 +7095,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -6425,7 +7108,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -6438,7 +7121,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +7134,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -6464,7 +7147,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -6477,7 +7160,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -6490,7 +7173,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -6503,7 +7186,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -6516,7 +7199,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -6529,7 +7212,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -6542,7 +7225,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +7238,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -6568,7 +7251,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -6581,7 +7264,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -6594,7 +7277,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -6607,7 +7290,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -6620,7 +7303,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -6633,7 +7316,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -6646,7 +7329,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -6659,7 +7342,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -6672,7 +7355,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -6685,7 +7368,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -6698,7 +7381,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -6711,7 +7394,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -6724,7 +7407,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -6737,7 +7420,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -6750,7 +7433,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -6763,7 +7446,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -6776,7 +7459,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6806,16 +7489,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27"/>
+    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6837,7 +7520,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6854,7 +7537,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6867,7 +7550,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6880,7 +7563,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6893,7 +7576,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6906,7 +7589,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -6919,7 +7602,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -6932,7 +7615,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -6945,7 +7628,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -6958,7 +7641,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -6971,7 +7654,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6984,7 +7667,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -6997,7 +7680,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -7010,7 +7693,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -7023,7 +7706,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -7036,7 +7719,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -7049,7 +7732,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -7062,7 +7745,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -7075,7 +7758,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -7088,7 +7771,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -7101,7 +7784,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -7114,7 +7797,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -7127,7 +7810,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -7140,7 +7823,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -7153,7 +7836,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -7166,7 +7849,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -7179,7 +7862,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7192,7 +7875,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7205,7 +7888,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7218,7 +7901,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7231,7 +7914,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7244,7 +7927,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7257,7 +7940,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7270,7 +7953,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7283,7 +7966,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7296,7 +7979,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7309,7 +7992,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -7322,7 +8005,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -7335,7 +8018,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -7348,7 +8031,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -7361,7 +8044,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -7374,7 +8057,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -7404,16 +8087,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27"/>
+    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +8118,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -7452,7 +8135,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -7465,7 +8148,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -7478,7 +8161,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -7491,7 +8174,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -7504,7 +8187,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -7517,7 +8200,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -7530,7 +8213,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -7543,7 +8226,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -7556,7 +8239,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -7569,7 +8252,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -7582,7 +8265,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -7595,7 +8278,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -7608,7 +8291,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -7621,7 +8304,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -7634,7 +8317,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -7647,7 +8330,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -7660,7 +8343,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -7673,7 +8356,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -7686,7 +8369,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -7699,7 +8382,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -7712,7 +8395,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -7725,7 +8408,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -7738,7 +8421,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -7751,7 +8434,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -7764,7 +8447,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -7777,7 +8460,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7790,7 +8473,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7803,7 +8486,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7816,7 +8499,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7829,7 +8512,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7842,7 +8525,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +8538,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7868,7 +8551,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7881,7 +8564,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7894,7 +8577,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7907,7 +8590,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -7920,7 +8603,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -7933,7 +8616,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -7946,7 +8629,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -7959,7 +8642,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -7972,7 +8655,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -8002,17 +8685,17 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27"/>
+    <col min="2" max="2" width="12.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -8034,7 +8717,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -8051,7 +8734,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -8064,7 +8747,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -8077,7 +8760,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -8090,7 +8773,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -8103,7 +8786,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -8116,7 +8799,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8812,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -8142,7 +8825,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -8155,7 +8838,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -8168,7 +8851,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8864,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -8194,7 +8877,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -8207,7 +8890,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -8220,7 +8903,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -8233,7 +8916,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -8246,7 +8929,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -8259,7 +8942,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -8272,7 +8955,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -8285,7 +8968,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -8298,7 +8981,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +8994,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -8324,7 +9007,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -8337,7 +9020,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -8350,7 +9033,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -8363,7 +9046,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -8376,7 +9059,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -8389,7 +9072,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -8402,7 +9085,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -8415,7 +9098,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -8428,7 +9111,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -8441,7 +9124,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -8454,7 +9137,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -8467,7 +9150,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -8480,7 +9163,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +9176,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -8506,7 +9189,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -8519,7 +9202,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -8532,7 +9215,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -8545,7 +9228,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -8558,7 +9241,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -8571,7 +9254,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\01-NEMA_Phantom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391EA5BA-6836-45FC-831D-D68F53510FA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C7725-46B3-4FAE-9587-A1FBEC27C22C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6996" tabRatio="703" activeTab="2" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
@@ -5626,7 +5626,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
+++ b/Matthias/01-NEMA_Phantom/Measured_vs_Simulated_allDosis_Mask_TK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\01-NEMA_Phantom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C7725-46B3-4FAE-9587-A1FBEC27C22C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6EFF6-CE4F-47E0-B7DD-B0F8236D9B0D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6996" tabRatio="703" activeTab="2" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6990" tabRatio="703" activeTab="1" xr2:uid="{CEAB1AE0-CCC6-4F1C-87B6-462A97D959FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim_vs_Mes-All_Dosis_MTK" sheetId="4" r:id="rId1"/>
@@ -430,7 +430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mes</t>
+      <t>mes over different dosises</t>
     </r>
   </si>
   <si>
@@ -446,7 +446,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sim</t>
+      <t>sim over different dosises</t>
     </r>
   </si>
 </sst>
@@ -2559,17 +2559,17 @@
       <selection activeCell="A16" sqref="A16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="13" customWidth="1"/>
-    <col min="3" max="10" width="12.6640625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="34" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>68</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>61</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>67</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>63</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>64</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>65</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="N14" s="31"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="N15" s="31"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="N16" s="31"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="N20" s="31"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="N26" s="31"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="N27" s="31"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="N30" s="32"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="N32" s="32"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="N38" s="32"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="N39" s="33"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="N40" s="33"/>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="N41" s="33"/>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="N42" s="33"/>
       <c r="O42" s="26"/>
     </row>
-    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -4184,24 +4184,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF64E8-C0CF-48B8-BA82-A098D67F4098}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="69" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="69" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="69" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I1" s="100"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>60</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>61</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>62</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
         <v>67</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
         <v>63</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>64</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>65</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="84" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>14</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>15</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
         <v>17</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>18</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>19</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
         <v>20</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
         <v>23</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
         <v>24</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
         <v>25</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>27</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
         <v>28</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>29</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
         <v>30</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="89" t="s">
         <v>31</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
         <v>32</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
         <v>33</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
         <v>34</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
         <v>35</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
         <v>36</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
         <v>37</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="s">
         <v>38</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="s">
         <v>39</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="91" t="s">
         <v>40</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="91" t="s">
         <v>41</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="92" t="s">
         <v>42</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="72"/>
@@ -5625,19 +5625,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8176F4A9-4881-448D-A0E0-F9B6D997CC24}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>0.22100390029524827</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>-20.738395527237444</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>-2.8374759913231831</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>57</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>1.5289763834216858</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>2.9628655086972087</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>6</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0.96632496296385195</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.98047604427471413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0.81663098920756272</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0.8915843690456291</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>1.8538821007245201</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>2.5799069109485777</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>8.1141674582550873</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>0.6730437252298882</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0.53079394521493595</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>4.731792326014487</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1.7005796902810768</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>0.65559777286450649</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>2.6986414747414047</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0.25976781062598786</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>13.372416259839857</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.61038626160105325</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>22</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>10857807428.36091</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1.1401258236302761E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0.75224966808175997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>2.7117620565402185</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>28.081324955208988</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1.251657275145535</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0.35466898326476398</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>124.71569979779608</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>30</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0.4856050382366176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>31</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>4.1538461538461595</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>32</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>3746612192.0750699</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>54431080203.797195</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1.9515437015490144E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>4.5640310354127748E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>0.5669448606432177</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>5.865728178013417E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1.7834100925449967</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0.76630452864961585</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0.14445492813477548</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>8.4496932746363491</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6292,17 +6292,17 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6393,7 +6393,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -6406,7 +6406,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -6601,7 +6601,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -6796,7 +6796,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -6891,16 +6891,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7017,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7290,7 +7290,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7381,7 +7381,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -7489,16 +7489,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -7589,7 +7589,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -7667,7 +7667,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -7849,7 +7849,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -7888,7 +7888,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -8057,7 +8057,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -8087,16 +8087,16 @@
       <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="3" width="12.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -8304,7 +8304,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -8356,7 +8356,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -8369,7 +8369,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -8473,7 +8473,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -8512,7 +8512,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -8564,7 +8564,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -8603,7 +8603,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
@@ -8685,17 +8685,17 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27"/>
+    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -8877,7 +8877,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -8929,7 +8929,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -8968,7 +8968,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -9059,7 +9059,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>30</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>31</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>33</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>34</v>
       </c>
@@ -9163,7 +9163,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>35</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
@@ -9202,7 +9202,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>38</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>39</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>40</v>
       </c>
@@ -9241,7 +9241,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>42</v>
       </c>
